--- a/data/nzd0063/nzd0063.xlsx
+++ b/data/nzd0063/nzd0063.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q326"/>
+  <dimension ref="A1:Q329"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17374,6 +17374,177 @@
         </is>
       </c>
     </row>
+    <row r="327">
+      <c r="A327" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>367.1542857142857</v>
+      </c>
+      <c r="C327" t="n">
+        <v>345.33</v>
+      </c>
+      <c r="D327" t="n">
+        <v>354.26</v>
+      </c>
+      <c r="E327" t="n">
+        <v>362.5071428571428</v>
+      </c>
+      <c r="F327" t="n">
+        <v>363.6961538461539</v>
+      </c>
+      <c r="G327" t="n">
+        <v>361.36</v>
+      </c>
+      <c r="H327" t="n">
+        <v>360.5771428571429</v>
+      </c>
+      <c r="I327" t="n">
+        <v>362.2271428571429</v>
+      </c>
+      <c r="J327" t="n">
+        <v>367.4561538461539</v>
+      </c>
+      <c r="K327" t="n">
+        <v>363.22</v>
+      </c>
+      <c r="L327" t="n">
+        <v>364.38</v>
+      </c>
+      <c r="M327" t="n">
+        <v>361.9961538461538</v>
+      </c>
+      <c r="N327" t="n">
+        <v>365.22</v>
+      </c>
+      <c r="O327" t="n">
+        <v>365.2571428571428</v>
+      </c>
+      <c r="P327" t="n">
+        <v>359.7468965517241</v>
+      </c>
+      <c r="Q327" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:26+00:00</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>358.7971428571428</v>
+      </c>
+      <c r="C328" t="n">
+        <v>335.94</v>
+      </c>
+      <c r="D328" t="n">
+        <v>355.13</v>
+      </c>
+      <c r="E328" t="n">
+        <v>352.8985714285715</v>
+      </c>
+      <c r="F328" t="n">
+        <v>367.4007692307693</v>
+      </c>
+      <c r="G328" t="n">
+        <v>362.59</v>
+      </c>
+      <c r="H328" t="n">
+        <v>364.1685714285715</v>
+      </c>
+      <c r="I328" t="n">
+        <v>359.6785714285714</v>
+      </c>
+      <c r="J328" t="n">
+        <v>356.6507692307692</v>
+      </c>
+      <c r="K328" t="n">
+        <v>355.04</v>
+      </c>
+      <c r="L328" t="n">
+        <v>360.69</v>
+      </c>
+      <c r="M328" t="n">
+        <v>360.7307692307692</v>
+      </c>
+      <c r="N328" t="n">
+        <v>360.03</v>
+      </c>
+      <c r="O328" t="n">
+        <v>362.1485714285715</v>
+      </c>
+      <c r="P328" t="n">
+        <v>358.5486206896552</v>
+      </c>
+      <c r="Q328" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:11:28+00:00</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>367.83</v>
+      </c>
+      <c r="C329" t="n">
+        <v>345.73</v>
+      </c>
+      <c r="D329" t="n">
+        <v>357.0788888888889</v>
+      </c>
+      <c r="E329" t="n">
+        <v>358.74</v>
+      </c>
+      <c r="F329" t="n">
+        <v>364.0184615384616</v>
+      </c>
+      <c r="G329" t="n">
+        <v>358.3744444444445</v>
+      </c>
+      <c r="H329" t="n">
+        <v>371.75</v>
+      </c>
+      <c r="I329" t="n">
+        <v>366.89</v>
+      </c>
+      <c r="J329" t="n">
+        <v>365.4584615384616</v>
+      </c>
+      <c r="K329" t="n">
+        <v>362.5366666666667</v>
+      </c>
+      <c r="L329" t="n">
+        <v>366.3266666666667</v>
+      </c>
+      <c r="M329" t="n">
+        <v>366.8484615384616</v>
+      </c>
+      <c r="N329" t="n">
+        <v>362.0266666666667</v>
+      </c>
+      <c r="O329" t="n">
+        <v>364.34</v>
+      </c>
+      <c r="P329" t="n">
+        <v>360.4393103448276</v>
+      </c>
+      <c r="Q329" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -17385,7 +17556,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B332"/>
+  <dimension ref="A1:B335"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20713,6 +20884,36 @@
       </c>
       <c r="B332" t="n">
         <v>1.07</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>-0.18</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>0.49</v>
       </c>
     </row>
   </sheetData>
@@ -20881,28 +21082,28 @@
         <v>0.0386</v>
       </c>
       <c r="I2" t="n">
-        <v>0.05825526301812253</v>
+        <v>0.07793829113713652</v>
       </c>
       <c r="J2" t="n">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="K2" t="n">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001979981221829075</v>
+        <v>0.00359443622662392</v>
       </c>
       <c r="M2" t="n">
-        <v>6.887508094933671</v>
+        <v>6.901829893355322</v>
       </c>
       <c r="N2" t="n">
-        <v>89.06944896286635</v>
+        <v>89.02030619059984</v>
       </c>
       <c r="O2" t="n">
-        <v>9.437661201953922</v>
+        <v>9.435057296625169</v>
       </c>
       <c r="P2" t="n">
-        <v>354.7243861906331</v>
+        <v>354.5368513748389</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -20958,28 +21159,28 @@
         <v>0.0411</v>
       </c>
       <c r="I3" t="n">
-        <v>0.007370229062770838</v>
+        <v>0.00141429693266965</v>
       </c>
       <c r="J3" t="n">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="K3" t="n">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="L3" t="n">
-        <v>5.455713838864451e-05</v>
+        <v>2.049941764448171e-06</v>
       </c>
       <c r="M3" t="n">
-        <v>5.5262760472724</v>
+        <v>5.505109956857059</v>
       </c>
       <c r="N3" t="n">
-        <v>51.99980425742856</v>
+        <v>51.71841538096748</v>
       </c>
       <c r="O3" t="n">
-        <v>7.211088978609858</v>
+        <v>7.191551667127719</v>
       </c>
       <c r="P3" t="n">
-        <v>344.7235546355534</v>
+        <v>344.7804282217035</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -21035,28 +21236,28 @@
         <v>0.0477</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03660835094102378</v>
+        <v>0.04294383089863606</v>
       </c>
       <c r="J4" t="n">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="K4" t="n">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001126609235526654</v>
+        <v>0.001590017534651378</v>
       </c>
       <c r="M4" t="n">
-        <v>6.057750750821209</v>
+        <v>6.017082868385681</v>
       </c>
       <c r="N4" t="n">
-        <v>61.39413434924459</v>
+        <v>60.78542277274632</v>
       </c>
       <c r="O4" t="n">
-        <v>7.835440916071321</v>
+        <v>7.796500674837803</v>
       </c>
       <c r="P4" t="n">
-        <v>351.9329063365506</v>
+        <v>351.8723830022846</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -21112,28 +21313,28 @@
         <v>0.0804</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.007449141337805269</v>
+        <v>-0.008161911817583967</v>
       </c>
       <c r="J5" t="n">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="K5" t="n">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="L5" t="n">
-        <v>5.502866694107045e-05</v>
+        <v>6.756387927897567e-05</v>
       </c>
       <c r="M5" t="n">
-        <v>5.296533311544818</v>
+        <v>5.275174508492104</v>
       </c>
       <c r="N5" t="n">
-        <v>51.55667548881421</v>
+        <v>51.16565812498593</v>
       </c>
       <c r="O5" t="n">
-        <v>7.180297729816933</v>
+        <v>7.153017413999908</v>
       </c>
       <c r="P5" t="n">
-        <v>358.5399023916407</v>
+        <v>358.5468632290628</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -21189,28 +21390,28 @@
         <v>0.0711</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.02738690669024493</v>
+        <v>-0.02515190439497144</v>
       </c>
       <c r="J6" t="n">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="K6" t="n">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0009177072046260282</v>
+        <v>0.000793567441620735</v>
       </c>
       <c r="M6" t="n">
-        <v>4.949422944530899</v>
+        <v>4.906429657985949</v>
       </c>
       <c r="N6" t="n">
-        <v>42.86200661101666</v>
+        <v>42.41874342443217</v>
       </c>
       <c r="O6" t="n">
-        <v>6.546908171879048</v>
+        <v>6.512967328678394</v>
       </c>
       <c r="P6" t="n">
-        <v>364.7664508034546</v>
+        <v>364.7450540135478</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -21266,28 +21467,28 @@
         <v>0.1034</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01065459803188061</v>
+        <v>0.005262061178304023</v>
       </c>
       <c r="J7" t="n">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="K7" t="n">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0001292507780098484</v>
+        <v>3.225247623861449e-05</v>
       </c>
       <c r="M7" t="n">
-        <v>5.354673069632542</v>
+        <v>5.322246893308953</v>
       </c>
       <c r="N7" t="n">
-        <v>45.94792211864348</v>
+        <v>45.52969783690614</v>
       </c>
       <c r="O7" t="n">
-        <v>6.778489663534457</v>
+        <v>6.747569772659349</v>
       </c>
       <c r="P7" t="n">
-        <v>362.882293936031</v>
+        <v>362.9346155731943</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -21343,28 +21544,28 @@
         <v>0.07679999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>0.09535744747830255</v>
+        <v>0.0981142662045522</v>
       </c>
       <c r="J8" t="n">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="K8" t="n">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="L8" t="n">
-        <v>0.008881490014931104</v>
+        <v>0.009583594737572754</v>
       </c>
       <c r="M8" t="n">
-        <v>5.431331161003169</v>
+        <v>5.414051835823479</v>
       </c>
       <c r="N8" t="n">
-        <v>51.39690020046054</v>
+        <v>51.08711115513574</v>
       </c>
       <c r="O8" t="n">
-        <v>7.169163145058183</v>
+        <v>7.147524827178688</v>
       </c>
       <c r="P8" t="n">
-        <v>361.8913154026508</v>
+        <v>361.8638059320053</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -21420,28 +21621,28 @@
         <v>0.0801</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1308193512083872</v>
+        <v>0.1308013594299491</v>
       </c>
       <c r="J9" t="n">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="K9" t="n">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02029375854423909</v>
+        <v>0.0207498945621013</v>
       </c>
       <c r="M9" t="n">
-        <v>4.898889644335715</v>
+        <v>4.874321260030232</v>
       </c>
       <c r="N9" t="n">
-        <v>41.98527079454342</v>
+        <v>41.6254523345256</v>
       </c>
       <c r="O9" t="n">
-        <v>6.479604215887218</v>
+        <v>6.451779005400417</v>
       </c>
       <c r="P9" t="n">
-        <v>359.6357265517086</v>
+        <v>359.6357711258261</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -21497,28 +21698,28 @@
         <v>0.077</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1298745384272763</v>
+        <v>0.134295288293225</v>
       </c>
       <c r="J10" t="n">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="K10" t="n">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0156075521464889</v>
+        <v>0.01701483088008715</v>
       </c>
       <c r="M10" t="n">
-        <v>5.298698173024567</v>
+        <v>5.29346888346984</v>
       </c>
       <c r="N10" t="n">
-        <v>54.57628561276875</v>
+        <v>54.25616551301577</v>
       </c>
       <c r="O10" t="n">
-        <v>7.387576437016997</v>
+        <v>7.36587846173257</v>
       </c>
       <c r="P10" t="n">
-        <v>357.9880128307851</v>
+        <v>357.9454143165329</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -21574,28 +21775,28 @@
         <v>0.06900000000000001</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01843241560396535</v>
+        <v>0.02084322829915548</v>
       </c>
       <c r="J11" t="n">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="K11" t="n">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0002671856860633204</v>
+        <v>0.0003494915488135852</v>
       </c>
       <c r="M11" t="n">
-        <v>5.906793966388097</v>
+        <v>5.881697635478955</v>
       </c>
       <c r="N11" t="n">
-        <v>66.39021751530105</v>
+        <v>65.81054548688668</v>
       </c>
       <c r="O11" t="n">
-        <v>8.148019238766011</v>
+        <v>8.112369905698745</v>
       </c>
       <c r="P11" t="n">
-        <v>358.7455695342331</v>
+        <v>358.7223056932248</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -21651,28 +21852,28 @@
         <v>0.0673</v>
       </c>
       <c r="I12" t="n">
-        <v>0.08529730925438957</v>
+        <v>0.08467024734120601</v>
       </c>
       <c r="J12" t="n">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="K12" t="n">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="L12" t="n">
-        <v>0.005015334613127753</v>
+        <v>0.005062906293739844</v>
       </c>
       <c r="M12" t="n">
-        <v>6.153496171587639</v>
+        <v>6.107162172089582</v>
       </c>
       <c r="N12" t="n">
-        <v>73.50789981106273</v>
+        <v>72.74976573622753</v>
       </c>
       <c r="O12" t="n">
-        <v>8.573674813699359</v>
+        <v>8.529347321819387</v>
       </c>
       <c r="P12" t="n">
-        <v>361.9149841724951</v>
+        <v>361.9210966137072</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -21728,28 +21929,28 @@
         <v>0.0743</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.01640202521198019</v>
+        <v>-0.01325803908812957</v>
       </c>
       <c r="J13" t="n">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="K13" t="n">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0002875962799460119</v>
+        <v>0.0001922739584335753</v>
       </c>
       <c r="M13" t="n">
-        <v>5.114182188289567</v>
+        <v>5.079437225234769</v>
       </c>
       <c r="N13" t="n">
-        <v>47.7129252435528</v>
+        <v>47.28330573698803</v>
       </c>
       <c r="O13" t="n">
-        <v>6.907454324391352</v>
+        <v>6.876285751551344</v>
       </c>
       <c r="P13" t="n">
-        <v>362.2397520373559</v>
+        <v>362.2087309325239</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -21805,28 +22006,28 @@
         <v>0.0675</v>
       </c>
       <c r="I14" t="n">
-        <v>0.08127934082182232</v>
+        <v>0.07701243334433347</v>
       </c>
       <c r="J14" t="n">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="K14" t="n">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="L14" t="n">
-        <v>0.005802328762655296</v>
+        <v>0.005333823804260396</v>
       </c>
       <c r="M14" t="n">
-        <v>5.658221963622787</v>
+        <v>5.625842242169442</v>
       </c>
       <c r="N14" t="n">
-        <v>57.92131609230483</v>
+        <v>57.39539334745659</v>
       </c>
       <c r="O14" t="n">
-        <v>7.610605501029785</v>
+        <v>7.575974745698179</v>
       </c>
       <c r="P14" t="n">
-        <v>362.2839462542801</v>
+        <v>362.3253868060926</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -21882,28 +22083,28 @@
         <v>0.0756</v>
       </c>
       <c r="I15" t="n">
-        <v>0.006930574012960457</v>
+        <v>0.002330399148192014</v>
       </c>
       <c r="J15" t="n">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="K15" t="n">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="L15" t="n">
-        <v>5.449057144246705e-05</v>
+        <v>6.303531756568503e-06</v>
       </c>
       <c r="M15" t="n">
-        <v>4.896447936929427</v>
+        <v>4.865592900169019</v>
       </c>
       <c r="N15" t="n">
-        <v>46.08230721495922</v>
+        <v>45.65412276967207</v>
       </c>
       <c r="O15" t="n">
-        <v>6.78839503969526</v>
+        <v>6.756783463281332</v>
       </c>
       <c r="P15" t="n">
-        <v>365.8436031676575</v>
+        <v>365.8878652401157</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -21959,28 +22160,28 @@
         <v>0.171</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.04286368538714518</v>
+        <v>-0.04845743278520698</v>
       </c>
       <c r="J16" t="n">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="K16" t="n">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="L16" t="n">
-        <v>0.002520577370653587</v>
+        <v>0.003292146609336077</v>
       </c>
       <c r="M16" t="n">
-        <v>4.314094027918895</v>
+        <v>4.294611372430481</v>
       </c>
       <c r="N16" t="n">
-        <v>37.9722655428975</v>
+        <v>37.64041609613385</v>
       </c>
       <c r="O16" t="n">
-        <v>6.162164030833446</v>
+        <v>6.13517857084322</v>
       </c>
       <c r="P16" t="n">
-        <v>363.2146798595927</v>
+        <v>363.2683465295677</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -22017,7 +22218,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q326"/>
+  <dimension ref="A1:Q329"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47039,6 +47240,267 @@
         </is>
       </c>
     </row>
+    <row r="327">
+      <c r="A327" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>-35.22123977135342,174.05932180070297</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>-35.22180833611809,174.05870184425305</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>-35.22251246056951,174.0583864616841</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>-35.223260727662506,174.05833327033346</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>-35.22399156339792,174.0583017954445</t>
+        </is>
+      </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>-35.224725723972405,174.05829791190374</t>
+        </is>
+      </c>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>-35.22545959057216,174.05831122977796</t>
+        </is>
+      </c>
+      <c r="I327" t="inlineStr">
+        <is>
+          <t>-35.22619268626963,174.05835397536742</t>
+        </is>
+      </c>
+      <c r="J327" t="inlineStr">
+        <is>
+          <t>-35.22692422888011,174.0584413187957</t>
+        </is>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>-35.227659162506775,174.05842475054138</t>
+        </is>
+      </c>
+      <c r="L327" t="inlineStr">
+        <is>
+          <t>-35.22839129181384,174.05846856448747</t>
+        </is>
+      </c>
+      <c r="M327" t="inlineStr">
+        <is>
+          <t>-35.22911632973458,174.05861029227964</t>
+        </is>
+      </c>
+      <c r="N327" t="inlineStr">
+        <is>
+          <t>-35.22980654602052,174.0589097693337</t>
+        </is>
+      </c>
+      <c r="O327" t="inlineStr">
+        <is>
+          <t>-35.23047682518084,174.05925489631326</t>
+        </is>
+      </c>
+      <c r="P327" t="inlineStr">
+        <is>
+          <t>-35.23111165323606,174.05970611225078</t>
+        </is>
+      </c>
+      <c r="Q327" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:26+00:00</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>-35.22120634034574,174.059239512457</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>-35.22177112907214,174.05860917203495</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>-35.222514768329184,174.0583955975533</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>-35.2232525233557,174.05822817181206</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>-35.223991745763314,174.05834249921764</t>
+        </is>
+      </c>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>-35.22472537755317,174.058311420028</t>
+        </is>
+      </c>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>-35.225458530119255,174.05835067006302</t>
+        </is>
+      </c>
+      <c r="I328" t="inlineStr">
+        <is>
+          <t>-35.22619354123535,174.0583259916295</t>
+        </is>
+      </c>
+      <c r="J328" t="inlineStr">
+        <is>
+          <t>-35.22692814081297,174.05832268635277</t>
+        </is>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>-35.227662182961225,174.05833494433568</t>
+        </is>
+      </c>
+      <c r="L328" t="inlineStr">
+        <is>
+          <t>-35.22839520883324,174.0584283005087</t>
+        </is>
+      </c>
+      <c r="M328" t="inlineStr">
+        <is>
+          <t>-35.229119161585544,174.05859682315986</t>
+        </is>
+      </c>
+      <c r="N328" t="inlineStr">
+        <is>
+          <t>-35.229822839439436,174.0588563091017</t>
+        </is>
+      </c>
+      <c r="O328" t="inlineStr">
+        <is>
+          <t>-35.23049030820143,174.05922495055896</t>
+        </is>
+      </c>
+      <c r="P328" t="inlineStr">
+        <is>
+          <t>-35.23111774766515,174.0596952400645</t>
+        </is>
+      </c>
+      <c r="Q328" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:11:28+00:00</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>-35.221242474405045,174.05932845409743</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>-35.22180992108115,174.0587057919532</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>-35.22251993794411,174.05841606283553</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>-35.223257511087475,174.05829206533554</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>-35.22399157926456,174.05830533674037</t>
+        </is>
+      </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>-35.22472656482295,174.05826512389064</t>
+        </is>
+      </c>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>-35.22545629148384,174.05843392765314</t>
+        </is>
+      </c>
+      <c r="I329" t="inlineStr">
+        <is>
+          <t>-35.22619112201074,174.058405174312</t>
+        </is>
+      </c>
+      <c r="J329" t="inlineStr">
+        <is>
+          <t>-35.2269249521244,174.0584193861098</t>
+        </is>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>-35.227659414829276,174.0584172483933</t>
+        </is>
+      </c>
+      <c r="L329" t="inlineStr">
+        <is>
+          <t>-35.22838922537727,174.05848980582596</t>
+        </is>
+      </c>
+      <c r="M329" t="inlineStr">
+        <is>
+          <t>-35.22910547056223,174.05866194163696</t>
+        </is>
+      </c>
+      <c r="N329" t="inlineStr">
+        <is>
+          <t>-35.229816571132666,174.05887687601435</t>
+        </is>
+      </c>
+      <c r="O329" t="inlineStr">
+        <is>
+          <t>-35.230480803168376,174.05924606121584</t>
+        </is>
+      </c>
+      <c r="P329" t="inlineStr">
+        <is>
+          <t>-35.231108131620196,174.0597123946529</t>
+        </is>
+      </c>
+      <c r="Q329" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0063/nzd0063.xlsx
+++ b/data/nzd0063/nzd0063.xlsx
@@ -20927,7 +20927,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W16"/>
+  <dimension ref="A1:X16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21018,35 +21018,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -21105,27 +21110,28 @@
       <c r="P2" t="n">
         <v>354.5368513748389</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (174.0557066945162 -35.21977099312585, 174.06483187523895 -35.22347814160283)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>174.0557066945162</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-35.21977099312585</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>174.064831875239</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-35.22347814160283</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>174.0602692848776</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-35.22162456736434</v>
       </c>
     </row>
@@ -21182,27 +21188,28 @@
       <c r="P3" t="n">
         <v>344.7804282217035</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (174.05529375233408 -35.220439948676635, 174.06444009935296 -35.22411198629695)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>174.0552937523341</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-35.22043994867663</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>174.064440099353</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-35.22411198629695</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>174.0598669258435</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-35.22227596748679</v>
       </c>
     </row>
@@ -21259,27 +21266,28 @@
       <c r="P4" t="n">
         <v>351.8723830022846</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (174.05466641939836 -35.22157269330084, 174.06439982372524 -35.22403128288195)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>174.0546664193984</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-35.22157269330084</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>174.0643998237252</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-35.22403128288195</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>174.0595331215618</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-35.2228019880914</v>
       </c>
     </row>
@@ -21336,27 +21344,28 @@
       <c r="P5" t="n">
         <v>358.5468632290628</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (174.05436818147098 -35.222951136384665, 174.06450782457514 -35.22374256851703)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>174.054368181471</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-35.22295113638467</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>174.0645078245751</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-35.22374256851703</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>174.059438003023</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-35.22334685245085</v>
       </c>
     </row>
@@ -21413,27 +21422,28 @@
       <c r="P6" t="n">
         <v>364.7450540135478</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (174.05430575068323 -35.2239735932386, 174.0644912123424 -35.224019136638354)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>174.0543057506832</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-35.2239735932386</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>174.0644912123424</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-35.22401913663835</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>174.0593984815128</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-35.22399636493847</v>
       </c>
     </row>
@@ -21490,27 +21500,28 @@
       <c r="P7" t="n">
         <v>362.9346155731943</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (174.05432937208124 -35.224827432800616, 174.06451005460684 -35.22456625273085)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>174.0543293720812</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-35.22482743280062</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>174.0645100546068</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-35.22456625273085</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>174.059419713344</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-35.22469684276574</v>
       </c>
     </row>
@@ -21567,27 +21578,28 @@
       <c r="P8" t="n">
         <v>361.8638059320053</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (174.05435144332878 -35.22556599403639, 174.06453169045378 -35.22529217851052)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>174.0543514433288</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-35.22556599403639</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>174.0645316904538</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-35.22529217851052</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>174.0594415668913</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-35.22542908627345</v>
       </c>
     </row>
@@ -21644,27 +21656,28 @@
       <c r="P9" t="n">
         <v>359.6357711258261</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (174.05437665354472 -35.2263141373127, 174.06455536497126 -35.226003060053095)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>174.0543766535447</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-35.2263141373127</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>174.0645553649713</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-35.2260030600531</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>174.059466009258</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-35.2261585986829</v>
       </c>
     </row>
@@ -21721,27 +21734,28 @@
       <c r="P10" t="n">
         <v>357.9454143165329</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (174.05440700533137 -35.227057195901814, 174.06458461019207 -35.226721493087226)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>174.0544070053314</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-35.22705719590181</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>174.0645846101921</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-35.22672149308723</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>174.0594958077617</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-35.22688934449452</v>
       </c>
     </row>
@@ -21798,27 +21812,28 @@
       <c r="P11" t="n">
         <v>358.7223056932248</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (174.05443703951445 -35.22779321691736, 174.06461437157955 -35.22745082584632)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>174.0544370395145</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-35.22779321691736</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>174.0646143715796</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-35.22745082584632</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>174.059525705547</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-35.22762202138184</v>
       </c>
     </row>
@@ -21875,27 +21890,28 @@
       <c r="P12" t="n">
         <v>361.9210966137072</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (174.05449255807466 -35.22877802518486, 174.06460744664508 -35.22779391933371)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>174.0544925580747</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-35.22877802518486</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>174.0646074466451</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-35.22779391933371</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>174.0595500023599</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-35.22828597225929</v>
       </c>
     </row>
@@ -21952,27 +21968,28 @@
       <c r="P13" t="n">
         <v>362.2087309325239</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (174.05475706086338 -35.229926393788844, 174.06462332121774 -35.227851935823836)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>174.0547570608634</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-35.22992639378884</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>174.0646233212177</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-35.22785193582384</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>174.0596901910405</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-35.22888916480634</v>
       </c>
     </row>
@@ -22029,27 +22046,28 @@
       <c r="P14" t="n">
         <v>362.3253868060926</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (174.0551477224157 -35.230953056139505, 174.0646944950535 -35.22804332091619)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>174.0551477224157</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-35.23095305613951</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>174.0646944950535</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-35.22804332091619</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>174.0599211087346</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-35.22949818852785</v>
       </c>
     </row>
@@ -22106,27 +22124,28 @@
       <c r="P15" t="n">
         <v>365.8878652401157</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
         <is>
           <t>LINESTRING (174.0557362014217 -35.232061030375384, 174.06466287768134 -35.22804169825639)</t>
         </is>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>174.0557362014217</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>-35.23206103037538</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>174.0646628776813</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>-35.22804169825639</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>174.0601995395515</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>-35.23005136431588</v>
       </c>
     </row>
@@ -22183,27 +22202,28 @@
       <c r="P16" t="n">
         <v>363.2683465295677</v>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
         <is>
           <t>LINESTRING (174.05644198612728 -35.23294128251185, 174.06484846068858 -35.22822888794892)</t>
         </is>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>174.0564419861273</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>-35.23294128251185</v>
       </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
         <v>174.0648484606886</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>-35.22822888794892</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>174.0606452234079</v>
       </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>-35.23058508523039</v>
       </c>
     </row>

--- a/data/nzd0063/nzd0063.xlsx
+++ b/data/nzd0063/nzd0063.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q329"/>
+  <dimension ref="A1:Q333"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17545,6 +17545,234 @@
         </is>
       </c>
     </row>
+    <row r="330">
+      <c r="A330" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:11:52+00:00</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>355.0257142857143</v>
+      </c>
+      <c r="C330" t="n">
+        <v>340.32</v>
+      </c>
+      <c r="D330" t="n">
+        <v>344.1188888888889</v>
+      </c>
+      <c r="E330" t="n">
+        <v>347.2528571428572</v>
+      </c>
+      <c r="F330" t="n">
+        <v>354.9123076923077</v>
+      </c>
+      <c r="G330" t="n">
+        <v>359.6544444444444</v>
+      </c>
+      <c r="H330" t="n">
+        <v>357.0628571428572</v>
+      </c>
+      <c r="I330" t="n">
+        <v>355.7128571428572</v>
+      </c>
+      <c r="J330" t="n">
+        <v>351.3823076923077</v>
+      </c>
+      <c r="K330" t="n">
+        <v>348.5766666666667</v>
+      </c>
+      <c r="L330" t="n">
+        <v>348.6466666666667</v>
+      </c>
+      <c r="M330" t="n">
+        <v>353.8423076923077</v>
+      </c>
+      <c r="N330" t="n">
+        <v>356.8066666666667</v>
+      </c>
+      <c r="O330" t="n">
+        <v>357.3728571428572</v>
+      </c>
+      <c r="P330" t="n">
+        <v>357.9024137931034</v>
+      </c>
+      <c r="Q330" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:11:30+00:00</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>365.8271428571429</v>
+      </c>
+      <c r="C331" t="n">
+        <v>350.91</v>
+      </c>
+      <c r="D331" t="n">
+        <v>353.7722222222222</v>
+      </c>
+      <c r="E331" t="n">
+        <v>362.3685714285714</v>
+      </c>
+      <c r="F331" t="n">
+        <v>363.1907692307692</v>
+      </c>
+      <c r="G331" t="n">
+        <v>363.0811111111111</v>
+      </c>
+      <c r="H331" t="n">
+        <v>372.1885714285714</v>
+      </c>
+      <c r="I331" t="n">
+        <v>362.8785714285714</v>
+      </c>
+      <c r="J331" t="n">
+        <v>368.1407692307693</v>
+      </c>
+      <c r="K331" t="n">
+        <v>365.7766666666667</v>
+      </c>
+      <c r="L331" t="n">
+        <v>365.8666666666667</v>
+      </c>
+      <c r="M331" t="n">
+        <v>370.2807692307693</v>
+      </c>
+      <c r="N331" t="n">
+        <v>372.0166666666667</v>
+      </c>
+      <c r="O331" t="n">
+        <v>368.7085714285714</v>
+      </c>
+      <c r="P331" t="n">
+        <v>360.7944827586207</v>
+      </c>
+      <c r="Q331" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:11:17+00:00</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>347.7585714285714</v>
+      </c>
+      <c r="C332" t="n">
+        <v>334.89</v>
+      </c>
+      <c r="D332" t="n">
+        <v>342.8455555555556</v>
+      </c>
+      <c r="E332" t="n">
+        <v>349.8542857142857</v>
+      </c>
+      <c r="F332" t="n">
+        <v>353.8023076923077</v>
+      </c>
+      <c r="G332" t="n">
+        <v>354.4377777777778</v>
+      </c>
+      <c r="H332" t="n">
+        <v>355.4342857142857</v>
+      </c>
+      <c r="I332" t="n">
+        <v>359.7742857142857</v>
+      </c>
+      <c r="J332" t="n">
+        <v>353.9223076923077</v>
+      </c>
+      <c r="K332" t="n">
+        <v>350.8666666666667</v>
+      </c>
+      <c r="L332" t="n">
+        <v>351.3166666666667</v>
+      </c>
+      <c r="M332" t="n">
+        <v>351.4723076923077</v>
+      </c>
+      <c r="N332" t="n">
+        <v>354.2166666666667</v>
+      </c>
+      <c r="O332" t="n">
+        <v>356.7342857142857</v>
+      </c>
+      <c r="P332" t="n">
+        <v>354.7920689655173</v>
+      </c>
+      <c r="Q332" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-19 22:10:53+00:00</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>355.8285714285714</v>
+      </c>
+      <c r="C333" t="n">
+        <v>344.53</v>
+      </c>
+      <c r="D333" t="n">
+        <v>347.0477777777777</v>
+      </c>
+      <c r="E333" t="n">
+        <v>359.1042857142857</v>
+      </c>
+      <c r="F333" t="n">
+        <v>360.74</v>
+      </c>
+      <c r="G333" t="n">
+        <v>358.7488888888889</v>
+      </c>
+      <c r="H333" t="n">
+        <v>349.9542857142857</v>
+      </c>
+      <c r="I333" t="n">
+        <v>365.1242857142857</v>
+      </c>
+      <c r="J333" t="n">
+        <v>357.38</v>
+      </c>
+      <c r="K333" t="n">
+        <v>351.8533333333333</v>
+      </c>
+      <c r="L333" t="n">
+        <v>348.9133333333333</v>
+      </c>
+      <c r="M333" t="n">
+        <v>355.72</v>
+      </c>
+      <c r="N333" t="n">
+        <v>363.2433333333333</v>
+      </c>
+      <c r="O333" t="n">
+        <v>365.0442857142857</v>
+      </c>
+      <c r="P333" t="n">
+        <v>358.4031034482759</v>
+      </c>
+      <c r="Q333" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -17556,7 +17784,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B335"/>
+  <dimension ref="A1:B339"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20914,6 +21142,46 @@
       </c>
       <c r="B335" t="n">
         <v>0.49</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>-0.41</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>2025-04-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>0.26</v>
       </c>
     </row>
   </sheetData>
@@ -21087,28 +21355,28 @@
         <v>0.0386</v>
       </c>
       <c r="I2" t="n">
-        <v>0.07793829113713652</v>
+        <v>0.07661911464222555</v>
       </c>
       <c r="J2" t="n">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="K2" t="n">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00359443622662392</v>
+        <v>0.003572183375992743</v>
       </c>
       <c r="M2" t="n">
-        <v>6.901829893355322</v>
+        <v>6.87472809518215</v>
       </c>
       <c r="N2" t="n">
-        <v>89.02030619059984</v>
+        <v>88.31958120378084</v>
       </c>
       <c r="O2" t="n">
-        <v>9.435057296625169</v>
+        <v>9.397849818111633</v>
       </c>
       <c r="P2" t="n">
-        <v>354.5368513748389</v>
+        <v>354.5497374973012</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -21165,28 +21433,28 @@
         <v>0.0411</v>
       </c>
       <c r="I3" t="n">
-        <v>0.00141429693266965</v>
+        <v>-0.005074970192118212</v>
       </c>
       <c r="J3" t="n">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="K3" t="n">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="L3" t="n">
-        <v>2.049941764448171e-06</v>
+        <v>2.701125041115748e-05</v>
       </c>
       <c r="M3" t="n">
-        <v>5.505109956857059</v>
+        <v>5.502623154061357</v>
       </c>
       <c r="N3" t="n">
-        <v>51.71841538096748</v>
+        <v>51.52798930669596</v>
       </c>
       <c r="O3" t="n">
-        <v>7.191551667127719</v>
+        <v>7.178299889715945</v>
       </c>
       <c r="P3" t="n">
-        <v>344.7804282217035</v>
+        <v>344.8432160150757</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -21243,28 +21511,28 @@
         <v>0.0477</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04294383089863606</v>
+        <v>0.02416976990494495</v>
       </c>
       <c r="J4" t="n">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="K4" t="n">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001590017534651378</v>
+        <v>0.0005158524458618308</v>
       </c>
       <c r="M4" t="n">
-        <v>6.017082868385681</v>
+        <v>6.026778543785224</v>
       </c>
       <c r="N4" t="n">
-        <v>60.78542277274632</v>
+        <v>60.65916687453735</v>
       </c>
       <c r="O4" t="n">
-        <v>7.796500674837803</v>
+        <v>7.78839950660836</v>
       </c>
       <c r="P4" t="n">
-        <v>351.8723830022846</v>
+        <v>352.0535031019559</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -21321,28 +21589,28 @@
         <v>0.0804</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.008161911817583967</v>
+        <v>-0.01918737936901656</v>
       </c>
       <c r="J5" t="n">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="K5" t="n">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="L5" t="n">
-        <v>6.756387927897567e-05</v>
+        <v>0.0003805472421646305</v>
       </c>
       <c r="M5" t="n">
-        <v>5.275174508492104</v>
+        <v>5.288413860795806</v>
       </c>
       <c r="N5" t="n">
-        <v>51.16565812498593</v>
+        <v>51.18160741043375</v>
       </c>
       <c r="O5" t="n">
-        <v>7.153017413999908</v>
+        <v>7.154132191288735</v>
       </c>
       <c r="P5" t="n">
-        <v>358.5468632290628</v>
+        <v>358.6544075044739</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -21399,28 +21667,28 @@
         <v>0.0711</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.02515190439497144</v>
+        <v>-0.04298807132836099</v>
       </c>
       <c r="J6" t="n">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="K6" t="n">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="L6" t="n">
-        <v>0.000793567441620735</v>
+        <v>0.002353498039022295</v>
       </c>
       <c r="M6" t="n">
-        <v>4.906429657985949</v>
+        <v>4.928276093351224</v>
       </c>
       <c r="N6" t="n">
-        <v>42.41874342443217</v>
+        <v>42.51620800816485</v>
       </c>
       <c r="O6" t="n">
-        <v>6.512967328678394</v>
+        <v>6.520445384186946</v>
       </c>
       <c r="P6" t="n">
-        <v>364.7450540135478</v>
+        <v>364.9177260673744</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -21477,28 +21745,28 @@
         <v>0.1034</v>
       </c>
       <c r="I7" t="n">
-        <v>0.005262061178304023</v>
+        <v>-0.006781351043555951</v>
       </c>
       <c r="J7" t="n">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="K7" t="n">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="L7" t="n">
-        <v>3.225247623861449e-05</v>
+        <v>5.488919457785624e-05</v>
       </c>
       <c r="M7" t="n">
-        <v>5.322246893308953</v>
+        <v>5.304674130345336</v>
       </c>
       <c r="N7" t="n">
-        <v>45.52969783690614</v>
+        <v>45.23411450209401</v>
       </c>
       <c r="O7" t="n">
-        <v>6.747569772659349</v>
+        <v>6.725631160128692</v>
       </c>
       <c r="P7" t="n">
-        <v>362.9346155731943</v>
+        <v>363.0527192772751</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -21555,28 +21823,28 @@
         <v>0.07679999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0981142662045522</v>
+        <v>0.0812088788612752</v>
       </c>
       <c r="J8" t="n">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="K8" t="n">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="L8" t="n">
-        <v>0.009583594737572754</v>
+        <v>0.006617099714813945</v>
       </c>
       <c r="M8" t="n">
-        <v>5.414051835823479</v>
+        <v>5.468076211570519</v>
       </c>
       <c r="N8" t="n">
-        <v>51.08711115513574</v>
+        <v>51.77600240254538</v>
       </c>
       <c r="O8" t="n">
-        <v>7.147524827178688</v>
+        <v>7.195554349912547</v>
       </c>
       <c r="P8" t="n">
-        <v>361.8638059320053</v>
+        <v>362.0328199409264</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -21633,28 +21901,28 @@
         <v>0.0801</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1308013594299491</v>
+        <v>0.1245675023497941</v>
       </c>
       <c r="J9" t="n">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="K9" t="n">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0207498945621013</v>
+        <v>0.01937276505105068</v>
       </c>
       <c r="M9" t="n">
-        <v>4.874321260030232</v>
+        <v>4.84989336371046</v>
       </c>
       <c r="N9" t="n">
-        <v>41.6254523345256</v>
+        <v>41.26944479361114</v>
       </c>
       <c r="O9" t="n">
-        <v>6.451779005400417</v>
+        <v>6.424129886109958</v>
       </c>
       <c r="P9" t="n">
-        <v>359.6357711258261</v>
+        <v>359.697147585537</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -21711,28 +21979,28 @@
         <v>0.077</v>
       </c>
       <c r="I10" t="n">
-        <v>0.134295288293225</v>
+        <v>0.1232164787790464</v>
       </c>
       <c r="J10" t="n">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="K10" t="n">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01701483088008715</v>
+        <v>0.01464561645457363</v>
       </c>
       <c r="M10" t="n">
-        <v>5.29346888346984</v>
+        <v>5.322559899769668</v>
       </c>
       <c r="N10" t="n">
-        <v>54.25616551301577</v>
+        <v>54.24813101764178</v>
       </c>
       <c r="O10" t="n">
-        <v>7.36587846173257</v>
+        <v>7.365333055445747</v>
       </c>
       <c r="P10" t="n">
-        <v>357.9454143165329</v>
+        <v>358.0534366203719</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -21789,28 +22057,28 @@
         <v>0.06900000000000001</v>
       </c>
       <c r="I11" t="n">
-        <v>0.02084322829915548</v>
+        <v>0.005984169577381637</v>
       </c>
       <c r="J11" t="n">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="K11" t="n">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0003494915488135852</v>
+        <v>2.933320253806215e-05</v>
       </c>
       <c r="M11" t="n">
-        <v>5.881697635478955</v>
+        <v>5.925985857642991</v>
       </c>
       <c r="N11" t="n">
-        <v>65.81054548688668</v>
+        <v>65.86151204839399</v>
       </c>
       <c r="O11" t="n">
-        <v>8.112369905698745</v>
+        <v>8.11551058457778</v>
       </c>
       <c r="P11" t="n">
-        <v>358.7223056932248</v>
+        <v>358.867403780508</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -21867,28 +22135,28 @@
         <v>0.0673</v>
       </c>
       <c r="I12" t="n">
-        <v>0.08467024734120601</v>
+        <v>0.05352490972411157</v>
       </c>
       <c r="J12" t="n">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="K12" t="n">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="L12" t="n">
-        <v>0.005062906293739844</v>
+        <v>0.00203388628920087</v>
       </c>
       <c r="M12" t="n">
-        <v>6.107162172089582</v>
+        <v>6.197383923983428</v>
       </c>
       <c r="N12" t="n">
-        <v>72.74976573622753</v>
+        <v>73.93582184119408</v>
       </c>
       <c r="O12" t="n">
-        <v>8.529347321819387</v>
+        <v>8.598594178189483</v>
       </c>
       <c r="P12" t="n">
-        <v>361.9210966137072</v>
+        <v>362.2314003947407</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -21945,28 +22213,28 @@
         <v>0.0743</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.01325803908812957</v>
+        <v>-0.02526348760573316</v>
       </c>
       <c r="J13" t="n">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="K13" t="n">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0001922739584335753</v>
+        <v>0.0007058773118482353</v>
       </c>
       <c r="M13" t="n">
-        <v>5.079437225234769</v>
+        <v>5.130314548414441</v>
       </c>
       <c r="N13" t="n">
-        <v>47.28330573698803</v>
+        <v>47.60544760886683</v>
       </c>
       <c r="O13" t="n">
-        <v>6.876285751551344</v>
+        <v>6.899670108698446</v>
       </c>
       <c r="P13" t="n">
-        <v>362.2087309325239</v>
+        <v>362.3281361736235</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -22023,28 +22291,28 @@
         <v>0.0675</v>
       </c>
       <c r="I14" t="n">
-        <v>0.07701243334433347</v>
+        <v>0.06913785535307748</v>
       </c>
       <c r="J14" t="n">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="K14" t="n">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="L14" t="n">
-        <v>0.005333823804260396</v>
+        <v>0.004387172661243</v>
       </c>
       <c r="M14" t="n">
-        <v>5.625842242169442</v>
+        <v>5.640822946769494</v>
       </c>
       <c r="N14" t="n">
-        <v>57.39539334745659</v>
+        <v>57.35201121390222</v>
       </c>
       <c r="O14" t="n">
-        <v>7.575974745698179</v>
+        <v>7.573111065731323</v>
       </c>
       <c r="P14" t="n">
-        <v>362.3253868060926</v>
+        <v>362.4026327513748</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -22101,28 +22369,28 @@
         <v>0.0756</v>
       </c>
       <c r="I15" t="n">
-        <v>0.002330399148192014</v>
+        <v>-0.00899502243977569</v>
       </c>
       <c r="J15" t="n">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="K15" t="n">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="L15" t="n">
-        <v>6.303531756568503e-06</v>
+        <v>9.573935964846125e-05</v>
       </c>
       <c r="M15" t="n">
-        <v>4.865592900169019</v>
+        <v>4.871571845146129</v>
       </c>
       <c r="N15" t="n">
-        <v>45.65412276967207</v>
+        <v>45.58874810775016</v>
       </c>
       <c r="O15" t="n">
-        <v>6.756783463281332</v>
+        <v>6.751944024334781</v>
       </c>
       <c r="P15" t="n">
-        <v>365.8878652401157</v>
+        <v>365.9980073769692</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -22179,28 +22447,28 @@
         <v>0.171</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.04845743278520698</v>
+        <v>-0.06005461975893168</v>
       </c>
       <c r="J16" t="n">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="K16" t="n">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="L16" t="n">
-        <v>0.003292146609336077</v>
+        <v>0.005173146322107969</v>
       </c>
       <c r="M16" t="n">
-        <v>4.294611372430481</v>
+        <v>4.288206888466274</v>
       </c>
       <c r="N16" t="n">
-        <v>37.64041609613385</v>
+        <v>37.39647768009441</v>
       </c>
       <c r="O16" t="n">
-        <v>6.13517857084322</v>
+        <v>6.115265953341229</v>
       </c>
       <c r="P16" t="n">
-        <v>363.2683465295677</v>
+        <v>363.3809475236353</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -22238,7 +22506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q329"/>
+  <dimension ref="A1:Q333"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47521,6 +47789,354 @@
         </is>
       </c>
     </row>
+    <row r="330">
+      <c r="A330" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:11:52+00:00</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>-35.221191253513226,174.05920237727028</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>-35.22178848444447,174.0586523993212</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>-35.222485560233636,174.05827996992278</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>-35.223247702703276,174.0581664190173</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>-35.22399113094483,174.05820528456636</t>
+        </is>
+      </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>-35.2247262043254,174.058279181126</t>
+        </is>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>-35.2254606282344,174.05827263665762</t>
+        </is>
+      </c>
+      <c r="I330" t="inlineStr">
+        <is>
+          <t>-35.22619487159513,174.05828244742588</t>
+        </is>
+      </c>
+      <c r="J330" t="inlineStr">
+        <is>
+          <t>-35.22693004814099,174.05826484384727</t>
+        </is>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>-35.22766456949165,174.05826398498465</t>
+        </is>
+      </c>
+      <c r="L330" t="inlineStr">
+        <is>
+          <t>-35.22840799301431,174.05829688787293</t>
+        </is>
+      </c>
+      <c r="M330" t="inlineStr">
+        <is>
+          <t>-35.22913457750201,174.05852350036605</t>
+        </is>
+      </c>
+      <c r="N330" t="inlineStr">
+        <is>
+          <t>-35.229832958718724,174.05882310675008</t>
+        </is>
+      </c>
+      <c r="O330" t="inlineStr">
+        <is>
+          <t>-35.23051102222123,174.05917894472296</t>
+        </is>
+      </c>
+      <c r="P330" t="inlineStr">
+        <is>
+          <t>-35.23112103427198,174.05968937690497</t>
+        </is>
+      </c>
+      <c r="Q330" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:11:30+00:00</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>-35.22123446239893,174.05930873304376</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>-35.221830446340995,174.05875691468404</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>-35.22251116669117,174.05838133953034</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>-35.22326060934355,174.05833175463954</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>-35.22399153851852,174.05829624262492</t>
+        </is>
+      </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>-35.22472523923542,174.05831681351566</t>
+        </is>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>-35.22545616198122,174.05843874394847</t>
+        </is>
+      </c>
+      <c r="I331" t="inlineStr">
+        <is>
+          <t>-35.22619246773477,174.05836112816132</t>
+        </is>
+      </c>
+      <c r="J331" t="inlineStr">
+        <is>
+          <t>-35.22692398102112,174.05844883519546</t>
+        </is>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>-35.22765821844727,174.05845281955345</t>
+        </is>
+      </c>
+      <c r="L331" t="inlineStr">
+        <is>
+          <t>-35.228389713679405,174.05848478646868</t>
+        </is>
+      </c>
+      <c r="M331" t="inlineStr">
+        <is>
+          <t>-35.22909778925117,174.05869847609762</t>
+        </is>
+      </c>
+      <c r="N331" t="inlineStr">
+        <is>
+          <t>-35.22978520861782,174.0589797791997</t>
+        </is>
+      </c>
+      <c r="O331" t="inlineStr">
+        <is>
+          <t>-35.23046185505386,174.05928814489633</t>
+        </is>
+      </c>
+      <c r="P331" t="inlineStr">
+        <is>
+          <t>-35.231106325213524,174.05971561719963</t>
+        </is>
+      </c>
+      <c r="Q331" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:11:17+00:00</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>-35.22116218275422,174.0591308217422</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>-35.22176696853533,174.058598809332</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>-35.222482182579846,174.05826659866005</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>-35.22324992396431,174.05819487342927</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>-35.22399107629098,174.05819308864744</t>
+        </is>
+      </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>-35.224727673530424,174.05822189056937</t>
+        </is>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>-35.22546110909811,174.0582547520404</t>
+        </is>
+      </c>
+      <c r="I332" t="inlineStr">
+        <is>
+          <t>-35.22619350912631,174.05832704258825</t>
+        </is>
+      </c>
+      <c r="J332" t="inlineStr">
+        <is>
+          <t>-35.22692912859454,174.05829273053962</t>
+        </is>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>-35.227663723933524,174.05828912633342</t>
+        </is>
+      </c>
+      <c r="L332" t="inlineStr">
+        <is>
+          <t>-35.228405158781044,174.05832602198177</t>
+        </is>
+      </c>
+      <c r="M332" t="inlineStr">
+        <is>
+          <t>-35.22913988139343,174.05849827338815</t>
+        </is>
+      </c>
+      <c r="N332" t="inlineStr">
+        <is>
+          <t>-35.229841089715336,174.05879642812224</t>
+        </is>
+      </c>
+      <c r="O332" t="inlineStr">
+        <is>
+          <t>-35.230513791937796,174.05917279317802</t>
+        </is>
+      </c>
+      <c r="P332" t="inlineStr">
+        <is>
+          <t>-35.23113685347496,174.05966115614103</t>
+        </is>
+      </c>
+      <c r="Q332" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-19 22:10:53+00:00</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>-35.22119446518083,174.05921028256267</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>-35.22180516619156,174.05869394885315</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>-35.22249332942115,174.05831072616456</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>-35.22325782213346,174.0582960498915</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>-35.22399141786687,174.05826931525328</t>
+        </is>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>-35.224726459365066,174.05826923612008</t>
+        </is>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>-35.22546272714291,174.05819457187033</t>
+        </is>
+      </c>
+      <c r="I333" t="inlineStr">
+        <is>
+          <t>-35.22619171436133,174.0583857864767</t>
+        </is>
+      </c>
+      <c r="J333" t="inlineStr">
+        <is>
+          <t>-35.226927876809185,174.05833069258628</t>
+        </is>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>-35.22766335961576,174.0582999587048</t>
+        </is>
+      </c>
+      <c r="L333" t="inlineStr">
+        <is>
+          <t>-35.22840770994513,174.05829979764667</t>
+        </is>
+      </c>
+      <c r="M333" t="inlineStr">
+        <is>
+          <t>-35.2291303753565,174.0585434870735</t>
+        </is>
+      </c>
+      <c r="N333" t="inlineStr">
+        <is>
+          <t>-35.22981275154505,174.05888940843866</t>
+        </is>
+      </c>
+      <c r="O333" t="inlineStr">
+        <is>
+          <t>-35.230477748420995,174.05925284580007</t>
+        </is>
+      </c>
+      <c r="P333" t="inlineStr">
+        <is>
+          <t>-35.231118487765535,174.05969391975862</t>
+        </is>
+      </c>
+      <c r="Q333" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0063/nzd0063.xlsx
+++ b/data/nzd0063/nzd0063.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q333"/>
+  <dimension ref="A1:Q336"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17773,6 +17773,177 @@
         </is>
       </c>
     </row>
+    <row r="334">
+      <c r="A334" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:10:58+00:00</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>350.3414285714285</v>
+      </c>
+      <c r="C334" t="n">
+        <v>346.47</v>
+      </c>
+      <c r="D334" t="n">
+        <v>349.7922222222222</v>
+      </c>
+      <c r="E334" t="n">
+        <v>355.8757142857143</v>
+      </c>
+      <c r="F334" t="n">
+        <v>359.1723076923077</v>
+      </c>
+      <c r="G334" t="n">
+        <v>364.3011111111111</v>
+      </c>
+      <c r="H334" t="n">
+        <v>354.6357142857143</v>
+      </c>
+      <c r="I334" t="n">
+        <v>364.5257142857143</v>
+      </c>
+      <c r="J334" t="n">
+        <v>361.8923076923077</v>
+      </c>
+      <c r="K334" t="n">
+        <v>358.9666666666667</v>
+      </c>
+      <c r="L334" t="n">
+        <v>358.8066666666667</v>
+      </c>
+      <c r="M334" t="n">
+        <v>362.7123076923077</v>
+      </c>
+      <c r="N334" t="n">
+        <v>366.9066666666667</v>
+      </c>
+      <c r="O334" t="n">
+        <v>368.7257142857143</v>
+      </c>
+      <c r="P334" t="n">
+        <v>361.1617241379311</v>
+      </c>
+      <c r="Q334" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:52+00:00</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>359.4185714285715</v>
+      </c>
+      <c r="C335" t="n">
+        <v>348.42</v>
+      </c>
+      <c r="D335" t="n">
+        <v>355.7166666666667</v>
+      </c>
+      <c r="E335" t="n">
+        <v>365.7042857142857</v>
+      </c>
+      <c r="F335" t="n">
+        <v>370.3038461538461</v>
+      </c>
+      <c r="G335" t="n">
+        <v>367.6833333333333</v>
+      </c>
+      <c r="H335" t="n">
+        <v>363.9742857142857</v>
+      </c>
+      <c r="I335" t="n">
+        <v>360.6642857142857</v>
+      </c>
+      <c r="J335" t="n">
+        <v>356.2638461538461</v>
+      </c>
+      <c r="K335" t="n">
+        <v>368.97</v>
+      </c>
+      <c r="L335" t="n">
+        <v>369</v>
+      </c>
+      <c r="M335" t="n">
+        <v>363.8338461538461</v>
+      </c>
+      <c r="N335" t="n">
+        <v>365.19</v>
+      </c>
+      <c r="O335" t="n">
+        <v>374.5542857142857</v>
+      </c>
+      <c r="P335" t="n">
+        <v>368.9927586206896</v>
+      </c>
+      <c r="Q335" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:11:15+00:00</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>353.6542857142857</v>
+      </c>
+      <c r="C336" t="n">
+        <v>351.98</v>
+      </c>
+      <c r="D336" t="n">
+        <v>356.4544444444444</v>
+      </c>
+      <c r="E336" t="n">
+        <v>357.9871428571428</v>
+      </c>
+      <c r="F336" t="n">
+        <v>363.8192307692308</v>
+      </c>
+      <c r="G336" t="n">
+        <v>362.2222222222222</v>
+      </c>
+      <c r="H336" t="n">
+        <v>362.5071428571428</v>
+      </c>
+      <c r="I336" t="n">
+        <v>357.7471428571428</v>
+      </c>
+      <c r="J336" t="n">
+        <v>367.1692307692308</v>
+      </c>
+      <c r="K336" t="n">
+        <v>362.9133333333333</v>
+      </c>
+      <c r="L336" t="n">
+        <v>361.7633333333333</v>
+      </c>
+      <c r="M336" t="n">
+        <v>362.1292307692308</v>
+      </c>
+      <c r="N336" t="n">
+        <v>363.2533333333333</v>
+      </c>
+      <c r="O336" t="n">
+        <v>368.1671428571429</v>
+      </c>
+      <c r="P336" t="n">
+        <v>359.4841379310345</v>
+      </c>
+      <c r="Q336" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -17784,7 +17955,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B339"/>
+  <dimension ref="A1:B342"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21182,6 +21353,36 @@
       </c>
       <c r="B339" t="n">
         <v>0.26</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>-0.51</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>0.83</v>
       </c>
     </row>
   </sheetData>
@@ -21355,28 +21556,28 @@
         <v>0.0386</v>
       </c>
       <c r="I2" t="n">
-        <v>0.07661911464222555</v>
+        <v>0.07205885959102816</v>
       </c>
       <c r="J2" t="n">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="K2" t="n">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003572183375992743</v>
+        <v>0.003234557625054202</v>
       </c>
       <c r="M2" t="n">
-        <v>6.87472809518215</v>
+        <v>6.842586366720684</v>
       </c>
       <c r="N2" t="n">
-        <v>88.31958120378084</v>
+        <v>87.55092667836712</v>
       </c>
       <c r="O2" t="n">
-        <v>9.397849818111633</v>
+        <v>9.356865216426232</v>
       </c>
       <c r="P2" t="n">
-        <v>354.5497374973012</v>
+        <v>354.5939079518947</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -21433,28 +21634,28 @@
         <v>0.0411</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.005074970192118212</v>
+        <v>0.004274232120057286</v>
       </c>
       <c r="J3" t="n">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="K3" t="n">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="L3" t="n">
-        <v>2.701125041115748e-05</v>
+        <v>1.954889152588901e-05</v>
       </c>
       <c r="M3" t="n">
-        <v>5.502623154061357</v>
+        <v>5.484448948723288</v>
       </c>
       <c r="N3" t="n">
-        <v>51.52798930669596</v>
+        <v>51.21220274739243</v>
       </c>
       <c r="O3" t="n">
-        <v>7.178299889715945</v>
+        <v>7.156270170095063</v>
       </c>
       <c r="P3" t="n">
-        <v>344.8432160150757</v>
+        <v>344.7522757415529</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -21511,28 +21712,28 @@
         <v>0.0477</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02416976990494495</v>
+        <v>0.02716980169968504</v>
       </c>
       <c r="J4" t="n">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="K4" t="n">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0005158524458618308</v>
+        <v>0.0006676495816924088</v>
       </c>
       <c r="M4" t="n">
-        <v>6.026778543785224</v>
+        <v>5.994817012944385</v>
       </c>
       <c r="N4" t="n">
-        <v>60.65916687453735</v>
+        <v>60.10238177680189</v>
       </c>
       <c r="O4" t="n">
-        <v>7.78839950660836</v>
+        <v>7.752572590876005</v>
       </c>
       <c r="P4" t="n">
-        <v>352.0535031019559</v>
+        <v>352.0243407853933</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -21589,28 +21790,28 @@
         <v>0.0804</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.01918737936901656</v>
+        <v>-0.01546846073232561</v>
       </c>
       <c r="J5" t="n">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="K5" t="n">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0003805472421646305</v>
+        <v>0.0002524791547321437</v>
       </c>
       <c r="M5" t="n">
-        <v>5.288413860795806</v>
+        <v>5.267321861462838</v>
       </c>
       <c r="N5" t="n">
-        <v>51.18160741043375</v>
+        <v>50.85647916112899</v>
       </c>
       <c r="O5" t="n">
-        <v>7.154132191288735</v>
+        <v>7.131372880527914</v>
       </c>
       <c r="P5" t="n">
-        <v>358.6544075044739</v>
+        <v>358.6178645605663</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -21667,28 +21868,28 @@
         <v>0.0711</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.04298807132836099</v>
+        <v>-0.04161570598075671</v>
       </c>
       <c r="J6" t="n">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="K6" t="n">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002353498039022295</v>
+        <v>0.002248605771118961</v>
       </c>
       <c r="M6" t="n">
-        <v>4.928276093351224</v>
+        <v>4.914352616363146</v>
       </c>
       <c r="N6" t="n">
-        <v>42.51620800816485</v>
+        <v>42.28125332406946</v>
       </c>
       <c r="O6" t="n">
-        <v>6.520445384186946</v>
+        <v>6.502403657423112</v>
       </c>
       <c r="P6" t="n">
-        <v>364.9177260673744</v>
+        <v>364.9043186710601</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -21745,28 +21946,28 @@
         <v>0.1034</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.006781351043555951</v>
+        <v>-0.002777055660091963</v>
       </c>
       <c r="J7" t="n">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="K7" t="n">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="L7" t="n">
-        <v>5.488919457785624e-05</v>
+        <v>9.408614584871522e-06</v>
       </c>
       <c r="M7" t="n">
-        <v>5.304674130345336</v>
+        <v>5.271462920884781</v>
       </c>
       <c r="N7" t="n">
-        <v>45.23411450209401</v>
+        <v>44.83225012339375</v>
       </c>
       <c r="O7" t="n">
-        <v>6.725631160128692</v>
+        <v>6.695688920745479</v>
       </c>
       <c r="P7" t="n">
-        <v>363.0527192772751</v>
+        <v>363.0132435057071</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -21823,28 +22024,28 @@
         <v>0.07679999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0812088788612752</v>
+        <v>0.07310682792183829</v>
       </c>
       <c r="J8" t="n">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="K8" t="n">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="L8" t="n">
-        <v>0.006617099714813945</v>
+        <v>0.005463908076038138</v>
       </c>
       <c r="M8" t="n">
-        <v>5.468076211570519</v>
+        <v>5.446556279301325</v>
       </c>
       <c r="N8" t="n">
-        <v>51.77600240254538</v>
+        <v>51.5485247154782</v>
       </c>
       <c r="O8" t="n">
-        <v>7.195554349912547</v>
+        <v>7.179730128318069</v>
       </c>
       <c r="P8" t="n">
-        <v>362.0328199409264</v>
+        <v>362.1141295839572</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -21901,28 +22102,28 @@
         <v>0.0801</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1245675023497941</v>
+        <v>0.1203705465310772</v>
       </c>
       <c r="J9" t="n">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="K9" t="n">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01937276505105068</v>
+        <v>0.01849748794533101</v>
       </c>
       <c r="M9" t="n">
-        <v>4.84989336371046</v>
+        <v>4.830446015385751</v>
       </c>
       <c r="N9" t="n">
-        <v>41.26944479361114</v>
+        <v>40.95168237185705</v>
       </c>
       <c r="O9" t="n">
-        <v>6.424129886109958</v>
+        <v>6.399350152308987</v>
       </c>
       <c r="P9" t="n">
-        <v>359.697147585537</v>
+        <v>359.7388686205315</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -21979,28 +22180,28 @@
         <v>0.077</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1232164787790464</v>
+        <v>0.1244394036844787</v>
       </c>
       <c r="J10" t="n">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="K10" t="n">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01464561645457363</v>
+        <v>0.01524482279500394</v>
       </c>
       <c r="M10" t="n">
-        <v>5.322559899769668</v>
+        <v>5.306298409889164</v>
       </c>
       <c r="N10" t="n">
-        <v>54.24813101764178</v>
+        <v>53.88106551377128</v>
       </c>
       <c r="O10" t="n">
-        <v>7.365333055445747</v>
+        <v>7.340372300760451</v>
       </c>
       <c r="P10" t="n">
-        <v>358.0534366203719</v>
+        <v>358.041405331154</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -22057,28 +22258,28 @@
         <v>0.06900000000000001</v>
       </c>
       <c r="I11" t="n">
-        <v>0.005984169577381637</v>
+        <v>0.01601680526094959</v>
       </c>
       <c r="J11" t="n">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="K11" t="n">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="L11" t="n">
-        <v>2.933320253806215e-05</v>
+        <v>0.0002139319967908726</v>
       </c>
       <c r="M11" t="n">
-        <v>5.925985857642991</v>
+        <v>5.904951826081521</v>
       </c>
       <c r="N11" t="n">
-        <v>65.86151204839399</v>
+        <v>65.54887494960816</v>
       </c>
       <c r="O11" t="n">
-        <v>8.11551058457778</v>
+        <v>8.096225969524824</v>
       </c>
       <c r="P11" t="n">
-        <v>358.867403780508</v>
+        <v>358.7688344824386</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -22135,28 +22336,28 @@
         <v>0.0673</v>
       </c>
       <c r="I12" t="n">
-        <v>0.05352490972411157</v>
+        <v>0.05260997652361769</v>
       </c>
       <c r="J12" t="n">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="K12" t="n">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="L12" t="n">
-        <v>0.00203388628920087</v>
+        <v>0.002007541282207148</v>
       </c>
       <c r="M12" t="n">
-        <v>6.197383923983428</v>
+        <v>6.174165758266244</v>
       </c>
       <c r="N12" t="n">
-        <v>73.93582184119408</v>
+        <v>73.33328236991026</v>
       </c>
       <c r="O12" t="n">
-        <v>8.598594178189483</v>
+        <v>8.563485410153406</v>
       </c>
       <c r="P12" t="n">
-        <v>362.2314003947407</v>
+        <v>362.2405481704039</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -22213,28 +22414,28 @@
         <v>0.0743</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.02526348760573316</v>
+        <v>-0.02262525252630638</v>
       </c>
       <c r="J13" t="n">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="K13" t="n">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0007058773118482353</v>
+        <v>0.0005797243059101342</v>
       </c>
       <c r="M13" t="n">
-        <v>5.130314548414441</v>
+        <v>5.086492092316792</v>
       </c>
       <c r="N13" t="n">
-        <v>47.60544760886683</v>
+        <v>47.11424034697615</v>
       </c>
       <c r="O13" t="n">
-        <v>6.899670108698446</v>
+        <v>6.863981377231158</v>
       </c>
       <c r="P13" t="n">
-        <v>362.3281361736235</v>
+        <v>362.3017704153628</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -22291,28 +22492,28 @@
         <v>0.0675</v>
       </c>
       <c r="I14" t="n">
-        <v>0.06913785535307748</v>
+        <v>0.07111159089526049</v>
       </c>
       <c r="J14" t="n">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="K14" t="n">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="L14" t="n">
-        <v>0.004387172661243</v>
+        <v>0.004748746203481979</v>
       </c>
       <c r="M14" t="n">
-        <v>5.640822946769494</v>
+        <v>5.598050385015806</v>
       </c>
       <c r="N14" t="n">
-        <v>57.35201121390222</v>
+        <v>56.79245739286156</v>
       </c>
       <c r="O14" t="n">
-        <v>7.573111065731323</v>
+        <v>7.536077055926483</v>
       </c>
       <c r="P14" t="n">
-        <v>362.4026327513748</v>
+        <v>362.3831930813807</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -22369,28 +22570,28 @@
         <v>0.0756</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.00899502243977569</v>
+        <v>0.0008554760946946248</v>
       </c>
       <c r="J15" t="n">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="K15" t="n">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="L15" t="n">
-        <v>9.573935964846125e-05</v>
+        <v>8.804946007856529e-07</v>
       </c>
       <c r="M15" t="n">
-        <v>4.871571845146129</v>
+        <v>4.868814490555433</v>
       </c>
       <c r="N15" t="n">
-        <v>45.58874810775016</v>
+        <v>45.42470690294208</v>
       </c>
       <c r="O15" t="n">
-        <v>6.751944024334781</v>
+        <v>6.739785375139336</v>
       </c>
       <c r="P15" t="n">
-        <v>365.9980073769692</v>
+        <v>365.9015807803786</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -22447,28 +22648,28 @@
         <v>0.171</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.06005461975893168</v>
+        <v>-0.05716707778440306</v>
       </c>
       <c r="J16" t="n">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="K16" t="n">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="L16" t="n">
-        <v>0.005173146322107969</v>
+        <v>0.004775962685589996</v>
       </c>
       <c r="M16" t="n">
-        <v>4.288206888466274</v>
+        <v>4.279576219591356</v>
       </c>
       <c r="N16" t="n">
-        <v>37.39647768009441</v>
+        <v>37.20490051824533</v>
       </c>
       <c r="O16" t="n">
-        <v>6.115265953341229</v>
+        <v>6.099581995370284</v>
       </c>
       <c r="P16" t="n">
-        <v>363.3809475236353</v>
+        <v>363.3527548471184</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -22506,7 +22707,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q333"/>
+  <dimension ref="A1:Q336"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48137,6 +48338,267 @@
         </is>
       </c>
     </row>
+    <row r="334">
+      <c r="A334" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:10:58+00:00</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>-35.221172514965254,174.05915625369926</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>-35.221812853262485,174.05871309519893</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>-35.22250060934307,174.05833954556172</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>-35.22325506540762,174.05826073578842</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>-35.223991340686055,174.05825209052526</t>
+        </is>
+      </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>-35.224724895630516,174.05833021181755</t>
+        </is>
+      </c>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>-35.2254613448891,174.05824598230257</t>
+        </is>
+      </c>
+      <c r="I334" t="inlineStr">
+        <is>
+          <t>-35.226191915165536,174.05837921406314</t>
+        </is>
+      </c>
+      <c r="J334" t="inlineStr">
+        <is>
+          <t>-35.22692624320445,174.0583802332661</t>
+        </is>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>-35.22766073305292,174.05837805424312</t>
+        </is>
+      </c>
+      <c r="L334" t="inlineStr">
+        <is>
+          <t>-35.22839720802953,174.05840775023788</t>
+        </is>
+      </c>
+      <c r="M334" t="inlineStr">
+        <is>
+          <t>-35.22911472702679,174.05861791522784</t>
+        </is>
+      </c>
+      <c r="N334" t="inlineStr">
+        <is>
+          <t>-35.229801250915976,174.05892714304596</t>
+        </is>
+      </c>
+      <c r="O334" t="inlineStr">
+        <is>
+          <t>-35.23046178069891,174.05928831003828</t>
+        </is>
+      </c>
+      <c r="P334" t="inlineStr">
+        <is>
+          <t>-35.231104457424024,174.05971894925017</t>
+        </is>
+      </c>
+      <c r="Q334" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:52+00:00</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>-35.221208826243135,174.05924563132427</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>-35.22182057995437,174.0587323402408</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>-35.22251632451923,174.05840175813972</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>-35.223263457531985,174.05836824067526</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>-35.22399188866218,174.0583743962358</t>
+        </is>
+      </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>-35.224723943042356,174.05836735610717</t>
+        </is>
+      </c>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>-35.225458587486976,174.05834853645973</t>
+        </is>
+      </c>
+      <c r="I335" t="inlineStr">
+        <is>
+          <t>-35.22619321055991,174.0583368149363</t>
+        </is>
+      </c>
+      <c r="J335" t="inlineStr">
+        <is>
+          <t>-35.2269282808907,174.05831843831956</t>
+        </is>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>-35.227657039286896,174.05848787837047</t>
+        </is>
+      </c>
+      <c r="L335" t="inlineStr">
+        <is>
+          <t>-35.22838638755938,174.05851897629233</t>
+        </is>
+      </c>
+      <c r="M335" t="inlineStr">
+        <is>
+          <t>-35.22911221709246,174.05862985320627</t>
+        </is>
+      </c>
+      <c r="N335" t="inlineStr">
+        <is>
+          <t>-35.229806640202206,174.05890946031505</t>
+        </is>
+      </c>
+      <c r="O335" t="inlineStr">
+        <is>
+          <t>-35.2304365000005,174.05934445827947</t>
+        </is>
+      </c>
+      <c r="P335" t="inlineStr">
+        <is>
+          <t>-35.23106462876447,174.05979000167198</t>
+        </is>
+      </c>
+      <c r="Q335" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:11:15+00:00</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>-35.22118576738943,174.05918887356938</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>-35.221834686112,174.05876747478797</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>-35.222518281545646,174.05840950554415</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>-35.2232568682587,174.0582838305866</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>-35.22399156945678,174.0583031477293</t>
+        </is>
+      </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>-35.224725481134875,174.05830738101344</t>
+        </is>
+      </c>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>-35.225459020696334,174.05833242461708</t>
+        </is>
+      </c>
+      <c r="I336" t="inlineStr">
+        <is>
+          <t>-35.22619418916468,174.0583047842222</t>
+        </is>
+      </c>
+      <c r="J336" t="inlineStr">
+        <is>
+          <t>-35.226924332757946,174.05843816866408</t>
+        </is>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>-35.227659275744244,174.05842138372373</t>
+        </is>
+      </c>
+      <c r="L336" t="inlineStr">
+        <is>
+          <t>-35.22839406946673,174.05844001234397</t>
+        </is>
+      </c>
+      <c r="M336" t="inlineStr">
+        <is>
+          <t>-35.22911603191674,174.05861170878885</t>
+        </is>
+      </c>
+      <c r="N336" t="inlineStr">
+        <is>
+          <t>-35.22981272015118,174.0588895114449</t>
+        </is>
+      </c>
+      <c r="O336" t="inlineStr">
+        <is>
+          <t>-35.230464203431154,174.0592829291633</t>
+        </is>
+      </c>
+      <c r="P336" t="inlineStr">
+        <is>
+          <t>-35.23111298962605,174.05970372819166</t>
+        </is>
+      </c>
+      <c r="Q336" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0063/nzd0063.xlsx
+++ b/data/nzd0063/nzd0063.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -45155,7 +45155,7 @@
       </c>
       <c r="K294" t="inlineStr">
         <is>
-          <t>-35.22765927082089,174.0584215301071</t>
+          <t>-35.22765927082088,174.0584215301071</t>
         </is>
       </c>
       <c r="L294" t="inlineStr">
@@ -48590,7 +48590,7 @@
       </c>
       <c r="P336" t="inlineStr">
         <is>
-          <t>-35.23111298962605,174.05970372819166</t>
+          <t>-35.231112989626055,174.05970372819166</t>
         </is>
       </c>
       <c r="Q336" t="inlineStr">

--- a/data/nzd0063/nzd0063.xlsx
+++ b/data/nzd0063/nzd0063.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q336"/>
+  <dimension ref="A1:Q337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17944,6 +17944,63 @@
         </is>
       </c>
     </row>
+    <row r="337">
+      <c r="A337" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>348.82</v>
+      </c>
+      <c r="C337" t="n">
+        <v>341.12</v>
+      </c>
+      <c r="D337" t="n">
+        <v>348.1444444444444</v>
+      </c>
+      <c r="E337" t="n">
+        <v>361.08</v>
+      </c>
+      <c r="F337" t="n">
+        <v>364.1007692307692</v>
+      </c>
+      <c r="G337" t="n">
+        <v>365.2622222222223</v>
+      </c>
+      <c r="H337" t="n">
+        <v>359.32</v>
+      </c>
+      <c r="I337" t="n">
+        <v>357.6</v>
+      </c>
+      <c r="J337" t="n">
+        <v>352.9207692307692</v>
+      </c>
+      <c r="K337" t="n">
+        <v>360.9833333333333</v>
+      </c>
+      <c r="L337" t="n">
+        <v>364.4533333333333</v>
+      </c>
+      <c r="M337" t="n">
+        <v>358.4707692307692</v>
+      </c>
+      <c r="N337" t="n">
+        <v>361.5833333333333</v>
+      </c>
+      <c r="O337" t="n">
+        <v>368.21</v>
+      </c>
+      <c r="P337" t="n">
+        <v>367.8124137931034</v>
+      </c>
+      <c r="Q337" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -17955,7 +18012,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B342"/>
+  <dimension ref="A1:B343"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21383,6 +21440,16 @@
       </c>
       <c r="B342" t="n">
         <v>0.83</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>-0.7</v>
       </c>
     </row>
   </sheetData>
@@ -21556,28 +21623,28 @@
         <v>0.0386</v>
       </c>
       <c r="I2" t="n">
-        <v>0.07205885959102816</v>
+        <v>0.06643946098680667</v>
       </c>
       <c r="J2" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K2" t="n">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003234557625054202</v>
+        <v>0.002767212165184829</v>
       </c>
       <c r="M2" t="n">
-        <v>6.842586366720684</v>
+        <v>6.844828382970457</v>
       </c>
       <c r="N2" t="n">
-        <v>87.55092667836712</v>
+        <v>87.44183798813583</v>
       </c>
       <c r="O2" t="n">
-        <v>9.356865216426232</v>
+        <v>9.351034059831877</v>
       </c>
       <c r="P2" t="n">
-        <v>354.5939079518947</v>
+        <v>354.6484748754746</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -21634,28 +21701,28 @@
         <v>0.0411</v>
       </c>
       <c r="I3" t="n">
-        <v>0.004274232120057286</v>
+        <v>0.001549809497377569</v>
       </c>
       <c r="J3" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K3" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L3" t="n">
-        <v>1.954889152588901e-05</v>
+        <v>2.588612100562493e-06</v>
       </c>
       <c r="M3" t="n">
-        <v>5.484448948723288</v>
+        <v>5.479267276649843</v>
       </c>
       <c r="N3" t="n">
-        <v>51.21220274739243</v>
+        <v>51.0768053406951</v>
       </c>
       <c r="O3" t="n">
-        <v>7.156270170095063</v>
+        <v>7.146803854919701</v>
       </c>
       <c r="P3" t="n">
-        <v>344.7522757415529</v>
+        <v>344.7788180919153</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -21712,28 +21779,28 @@
         <v>0.0477</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02716980169968504</v>
+        <v>0.02371945932441817</v>
       </c>
       <c r="J4" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K4" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0006676495816924088</v>
+        <v>0.0005125987418034272</v>
       </c>
       <c r="M4" t="n">
-        <v>5.994817012944385</v>
+        <v>5.990471994352288</v>
       </c>
       <c r="N4" t="n">
-        <v>60.10238177680189</v>
+        <v>59.95708005489896</v>
       </c>
       <c r="O4" t="n">
-        <v>7.752572590876005</v>
+        <v>7.743195726242425</v>
       </c>
       <c r="P4" t="n">
-        <v>352.0243407853933</v>
+        <v>352.0578905219995</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -21790,28 +21857,28 @@
         <v>0.0804</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.01546846073232561</v>
+        <v>-0.01339396526165581</v>
       </c>
       <c r="J5" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K5" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0002524791547321437</v>
+        <v>0.0001907403818746101</v>
       </c>
       <c r="M5" t="n">
-        <v>5.267321861462838</v>
+        <v>5.258555578327823</v>
       </c>
       <c r="N5" t="n">
-        <v>50.85647916112899</v>
+        <v>50.70536153884994</v>
       </c>
       <c r="O5" t="n">
-        <v>7.131372880527914</v>
+        <v>7.120769729379679</v>
       </c>
       <c r="P5" t="n">
-        <v>358.6178645605663</v>
+        <v>358.5974486529372</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -21868,28 +21935,28 @@
         <v>0.0711</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.04161570598075671</v>
+        <v>-0.04141965521551155</v>
       </c>
       <c r="J6" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K6" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002248605771118961</v>
+        <v>0.002245484495421057</v>
       </c>
       <c r="M6" t="n">
-        <v>4.914352616363146</v>
+        <v>4.897260152208205</v>
       </c>
       <c r="N6" t="n">
-        <v>42.28125332406946</v>
+        <v>42.12663946560043</v>
       </c>
       <c r="O6" t="n">
-        <v>6.502403657423112</v>
+        <v>6.490503791355525</v>
       </c>
       <c r="P6" t="n">
-        <v>364.9043186710601</v>
+        <v>364.9024043093654</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -21946,28 +22013,28 @@
         <v>0.1034</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.002777055660091963</v>
+        <v>-0.001120408931352866</v>
       </c>
       <c r="J7" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K7" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L7" t="n">
-        <v>9.408614584871522e-06</v>
+        <v>1.54278738750957e-06</v>
       </c>
       <c r="M7" t="n">
-        <v>5.271462920884781</v>
+        <v>5.260525342849384</v>
       </c>
       <c r="N7" t="n">
-        <v>44.83225012339375</v>
+        <v>44.6891040419382</v>
       </c>
       <c r="O7" t="n">
-        <v>6.695688920745479</v>
+        <v>6.684990953018426</v>
       </c>
       <c r="P7" t="n">
-        <v>363.0132435057071</v>
+        <v>362.9968715756842</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -22024,28 +22091,28 @@
         <v>0.07679999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>0.07310682792183829</v>
+        <v>0.06975722180505574</v>
       </c>
       <c r="J8" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K8" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L8" t="n">
-        <v>0.005463908076038138</v>
+        <v>0.005008360914387056</v>
       </c>
       <c r="M8" t="n">
-        <v>5.446556279301325</v>
+        <v>5.442680577372252</v>
       </c>
       <c r="N8" t="n">
-        <v>51.5485247154782</v>
+        <v>51.44285784355206</v>
       </c>
       <c r="O8" t="n">
-        <v>7.179730128318069</v>
+        <v>7.172367659535592</v>
       </c>
       <c r="P8" t="n">
-        <v>362.1141295839572</v>
+        <v>362.1478353156361</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -22102,28 +22169,28 @@
         <v>0.0801</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1203705465310772</v>
+        <v>0.1165961137216755</v>
       </c>
       <c r="J9" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K9" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01849748794533101</v>
+        <v>0.01747126997808546</v>
       </c>
       <c r="M9" t="n">
-        <v>4.830446015385751</v>
+        <v>4.831911405762318</v>
       </c>
       <c r="N9" t="n">
-        <v>40.95168237185705</v>
+        <v>40.90313794812243</v>
       </c>
       <c r="O9" t="n">
-        <v>6.399350152308987</v>
+        <v>6.395556109371759</v>
       </c>
       <c r="P9" t="n">
-        <v>359.7388686205315</v>
+        <v>359.7764196189449</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -22180,28 +22247,28 @@
         <v>0.077</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1244394036844787</v>
+        <v>0.118359515785366</v>
       </c>
       <c r="J10" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K10" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01524482279500394</v>
+        <v>0.01386054418374849</v>
       </c>
       <c r="M10" t="n">
-        <v>5.306298409889164</v>
+        <v>5.31966081987862</v>
       </c>
       <c r="N10" t="n">
-        <v>53.88106551377128</v>
+        <v>53.93348437127084</v>
       </c>
       <c r="O10" t="n">
-        <v>7.340372300760451</v>
+        <v>7.343942018512323</v>
       </c>
       <c r="P10" t="n">
-        <v>358.041405331154</v>
+        <v>358.101150842946</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -22258,28 +22325,28 @@
         <v>0.06900000000000001</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01601680526094959</v>
+        <v>0.01731729782223523</v>
       </c>
       <c r="J11" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K11" t="n">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0002139319967908726</v>
+        <v>0.0002520190177214277</v>
       </c>
       <c r="M11" t="n">
-        <v>5.904951826081521</v>
+        <v>5.8891043468041</v>
       </c>
       <c r="N11" t="n">
-        <v>65.54887494960816</v>
+        <v>65.3221822868</v>
       </c>
       <c r="O11" t="n">
-        <v>8.096225969524824</v>
+        <v>8.082213947106325</v>
       </c>
       <c r="P11" t="n">
-        <v>358.7688344824386</v>
+        <v>358.7560349404468</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -22336,28 +22403,28 @@
         <v>0.0673</v>
       </c>
       <c r="I12" t="n">
-        <v>0.05260997652361769</v>
+        <v>0.05323191138376547</v>
       </c>
       <c r="J12" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K12" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L12" t="n">
-        <v>0.002007541282207148</v>
+        <v>0.002071332065701315</v>
       </c>
       <c r="M12" t="n">
-        <v>6.174165758266244</v>
+        <v>6.15457960699696</v>
       </c>
       <c r="N12" t="n">
-        <v>73.33328236991026</v>
+        <v>73.07115949006038</v>
       </c>
       <c r="O12" t="n">
-        <v>8.563485410153406</v>
+        <v>8.548167025161616</v>
       </c>
       <c r="P12" t="n">
-        <v>362.2405481704039</v>
+        <v>362.2343025807716</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -22414,28 +22481,28 @@
         <v>0.0743</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.02262525252630638</v>
+        <v>-0.02496171556877281</v>
       </c>
       <c r="J13" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K13" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0005797243059101342</v>
+        <v>0.0007105291962938853</v>
       </c>
       <c r="M13" t="n">
-        <v>5.086492092316792</v>
+        <v>5.081298551124883</v>
       </c>
       <c r="N13" t="n">
-        <v>47.11424034697615</v>
+        <v>46.98321854197012</v>
       </c>
       <c r="O13" t="n">
-        <v>6.863981377231158</v>
+        <v>6.854430577514818</v>
       </c>
       <c r="P13" t="n">
-        <v>362.3017704153628</v>
+        <v>362.3251708014221</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -22492,28 +22559,28 @@
         <v>0.0675</v>
       </c>
       <c r="I14" t="n">
-        <v>0.07111159089526049</v>
+        <v>0.06926681850853064</v>
       </c>
       <c r="J14" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K14" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L14" t="n">
-        <v>0.004748746203481979</v>
+        <v>0.004539776082454372</v>
       </c>
       <c r="M14" t="n">
-        <v>5.598050385015806</v>
+        <v>5.588397531054578</v>
       </c>
       <c r="N14" t="n">
-        <v>56.79245739286156</v>
+        <v>56.62144188214396</v>
       </c>
       <c r="O14" t="n">
-        <v>7.536077055926483</v>
+        <v>7.524722046836279</v>
       </c>
       <c r="P14" t="n">
-        <v>362.3831930813807</v>
+        <v>362.4014215632719</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -22570,28 +22637,28 @@
         <v>0.0756</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0008554760946946248</v>
+        <v>0.002436234866081005</v>
       </c>
       <c r="J15" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K15" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L15" t="n">
-        <v>8.804946007856529e-07</v>
+        <v>7.192693762259061e-06</v>
       </c>
       <c r="M15" t="n">
-        <v>4.868814490555433</v>
+        <v>4.860047090943058</v>
       </c>
       <c r="N15" t="n">
-        <v>45.42470690294208</v>
+        <v>45.28541638340397</v>
       </c>
       <c r="O15" t="n">
-        <v>6.739785375139336</v>
+        <v>6.729443987686053</v>
       </c>
       <c r="P15" t="n">
-        <v>365.9015807803786</v>
+        <v>365.8860747203711</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -22648,28 +22715,28 @@
         <v>0.171</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.05716707778440306</v>
+        <v>-0.05304749976531896</v>
       </c>
       <c r="J16" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K16" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L16" t="n">
-        <v>0.004775962685589996</v>
+        <v>0.004133463352116507</v>
       </c>
       <c r="M16" t="n">
-        <v>4.279576219591356</v>
+        <v>4.286442899821316</v>
       </c>
       <c r="N16" t="n">
-        <v>37.20490051824533</v>
+        <v>37.19662880159088</v>
       </c>
       <c r="O16" t="n">
-        <v>6.099581995370284</v>
+        <v>6.098903901652401</v>
       </c>
       <c r="P16" t="n">
-        <v>363.3527548471184</v>
+        <v>363.3124354907494</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -22707,7 +22774,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q336"/>
+  <dimension ref="A1:Q337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48599,6 +48666,93 @@
         </is>
       </c>
     </row>
+    <row r="337">
+      <c r="A337" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>-35.221166428790724,174.05914127303794</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>-35.22179165437378,174.05866029471792</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>-35.22249623844343,174.0583222422551</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>-35.223259509098206,174.0583176602486</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>-35.22399158331639,174.05830624108086</t>
+        </is>
+      </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>-35.224724624938915,174.05834076694595</t>
+        </is>
+      </c>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>-35.22545996176982,174.05829742410904</t>
+        </is>
+      </c>
+      <c r="I337" t="inlineStr">
+        <is>
+          <t>-35.22619423852601,174.05830316856913</t>
+        </is>
+      </c>
+      <c r="J337" t="inlineStr">
+        <is>
+          <t>-35.22692949117843,174.05828173463618</t>
+        </is>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>-35.22765998839967,174.05840019472967</t>
+        </is>
+      </c>
+      <c r="L337" t="inlineStr">
+        <is>
+          <t>-35.22839121396869,174.05846936467492</t>
+        </is>
+      </c>
+      <c r="M337" t="inlineStr">
+        <is>
+          <t>-35.229124219319324,174.05857276706385</t>
+        </is>
+      </c>
+      <c r="N337" t="inlineStr">
+        <is>
+          <t>-35.22981796292729,174.05887230940465</t>
+        </is>
+      </c>
+      <c r="O337" t="inlineStr">
+        <is>
+          <t>-35.23046401754378,174.05928334201818</t>
+        </is>
+      </c>
+      <c r="P337" t="inlineStr">
+        <is>
+          <t>-35.2310706320036,174.05977929218992</t>
+        </is>
+      </c>
+      <c r="Q337" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0063/nzd0063.xlsx
+++ b/data/nzd0063/nzd0063.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q337"/>
+  <dimension ref="A1:Q339"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18001,6 +18001,96 @@
         </is>
       </c>
     </row>
+    <row r="338">
+      <c r="A338" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>346.0585714285714</v>
+      </c>
+      <c r="C338" t="n">
+        <v>339.59</v>
+      </c>
+      <c r="D338" t="n">
+        <v>344.9333333333333</v>
+      </c>
+      <c r="E338" t="n">
+        <v>359.3242857142857</v>
+      </c>
+      <c r="F338" t="n">
+        <v>362.4523076923077</v>
+      </c>
+      <c r="G338" t="n">
+        <v>363.9566666666667</v>
+      </c>
+      <c r="H338" t="n">
+        <v>358.1842857142857</v>
+      </c>
+      <c r="I338" t="n">
+        <v>355.0342857142857</v>
+      </c>
+      <c r="J338" t="n">
+        <v>356.7923076923077</v>
+      </c>
+      <c r="K338" t="n">
+        <v>359.66</v>
+      </c>
+      <c r="L338" t="n">
+        <v>361.72</v>
+      </c>
+      <c r="M338" t="n">
+        <v>356.1823076923077</v>
+      </c>
+      <c r="N338" t="n">
+        <v>355.51</v>
+      </c>
+      <c r="O338" t="n">
+        <v>366.4142857142857</v>
+      </c>
+      <c r="P338" t="n">
+        <v>366.8362068965517</v>
+      </c>
+      <c r="Q338" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:11:13+00:00</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr"/>
+      <c r="C339" t="inlineStr"/>
+      <c r="D339" t="inlineStr"/>
+      <c r="E339" t="inlineStr"/>
+      <c r="F339" t="inlineStr"/>
+      <c r="G339" t="inlineStr"/>
+      <c r="H339" t="n">
+        <v>332.3642857142857</v>
+      </c>
+      <c r="I339" t="n">
+        <v>334.0742857142857</v>
+      </c>
+      <c r="J339" t="n">
+        <v>329.5738461538461</v>
+      </c>
+      <c r="K339" t="inlineStr"/>
+      <c r="L339" t="inlineStr"/>
+      <c r="M339" t="inlineStr"/>
+      <c r="N339" t="inlineStr"/>
+      <c r="O339" t="inlineStr"/>
+      <c r="P339" t="inlineStr"/>
+      <c r="Q339" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -18012,7 +18102,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B343"/>
+  <dimension ref="A1:B345"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21450,6 +21540,26 @@
       </c>
       <c r="B343" t="n">
         <v>-0.7</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>-0.93</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
@@ -21623,28 +21733,28 @@
         <v>0.0386</v>
       </c>
       <c r="I2" t="n">
-        <v>0.06643946098680667</v>
+        <v>0.05891077119542244</v>
       </c>
       <c r="J2" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K2" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002767212165184829</v>
+        <v>0.002185251790440268</v>
       </c>
       <c r="M2" t="n">
-        <v>6.844828382970457</v>
+        <v>6.856503610523816</v>
       </c>
       <c r="N2" t="n">
-        <v>87.44183798813583</v>
+        <v>87.50529749327815</v>
       </c>
       <c r="O2" t="n">
-        <v>9.351034059831877</v>
+        <v>9.354426625575623</v>
       </c>
       <c r="P2" t="n">
-        <v>354.6484748754746</v>
+        <v>354.7217276383523</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -21701,28 +21811,28 @@
         <v>0.0411</v>
       </c>
       <c r="I3" t="n">
-        <v>0.001549809497377569</v>
+        <v>-0.002227395505086094</v>
       </c>
       <c r="J3" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K3" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L3" t="n">
-        <v>2.588612100562493e-06</v>
+        <v>5.379844523978328e-06</v>
       </c>
       <c r="M3" t="n">
-        <v>5.479267276649843</v>
+        <v>5.479701263274666</v>
       </c>
       <c r="N3" t="n">
-        <v>51.0768053406951</v>
+        <v>50.9899704587867</v>
       </c>
       <c r="O3" t="n">
-        <v>7.146803854919701</v>
+        <v>7.140726185675144</v>
       </c>
       <c r="P3" t="n">
-        <v>344.7788180919153</v>
+        <v>344.815691208947</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -21779,28 +21889,28 @@
         <v>0.0477</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02371945932441817</v>
+        <v>0.01793856559058946</v>
       </c>
       <c r="J4" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K4" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0005125987418034272</v>
+        <v>0.000294652520411498</v>
       </c>
       <c r="M4" t="n">
-        <v>5.990471994352288</v>
+        <v>5.998137155926406</v>
       </c>
       <c r="N4" t="n">
-        <v>59.95708005489896</v>
+        <v>59.95408740294416</v>
       </c>
       <c r="O4" t="n">
-        <v>7.743195726242425</v>
+        <v>7.743002479848768</v>
       </c>
       <c r="P4" t="n">
-        <v>352.0578905219995</v>
+        <v>352.1142123435785</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -21857,28 +21967,28 @@
         <v>0.0804</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.01339396526165581</v>
+        <v>-0.01262201132926933</v>
       </c>
       <c r="J5" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K5" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0001907403818746101</v>
+        <v>0.0001707424573222927</v>
       </c>
       <c r="M5" t="n">
-        <v>5.258555578327823</v>
+        <v>5.243677079528053</v>
       </c>
       <c r="N5" t="n">
-        <v>50.70536153884994</v>
+        <v>50.53082681043749</v>
       </c>
       <c r="O5" t="n">
-        <v>7.120769729379679</v>
+        <v>7.108503837688877</v>
       </c>
       <c r="P5" t="n">
-        <v>358.5974486529372</v>
+        <v>358.5898367236115</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -21935,28 +22045,28 @@
         <v>0.0711</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.04141965521551155</v>
+        <v>-0.04241702562979879</v>
       </c>
       <c r="J6" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K6" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002245484495421057</v>
+        <v>0.002373147360177352</v>
       </c>
       <c r="M6" t="n">
-        <v>4.897260152208205</v>
+        <v>4.884757813848811</v>
       </c>
       <c r="N6" t="n">
-        <v>42.12663946560043</v>
+        <v>41.97976741183116</v>
       </c>
       <c r="O6" t="n">
-        <v>6.490503791355525</v>
+        <v>6.479179532304315</v>
       </c>
       <c r="P6" t="n">
-        <v>364.9024043093654</v>
+        <v>364.9121631889105</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -22013,28 +22123,28 @@
         <v>0.1034</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.001120408931352866</v>
+        <v>-0.0004196985806310181</v>
       </c>
       <c r="J7" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K7" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L7" t="n">
-        <v>1.54278738750957e-06</v>
+        <v>2.181482344765229e-07</v>
       </c>
       <c r="M7" t="n">
-        <v>5.260525342849384</v>
+        <v>5.244960908819321</v>
       </c>
       <c r="N7" t="n">
-        <v>44.6891040419382</v>
+        <v>44.53126089728588</v>
       </c>
       <c r="O7" t="n">
-        <v>6.684990953018426</v>
+        <v>6.673174724018986</v>
       </c>
       <c r="P7" t="n">
-        <v>362.9968715756842</v>
+        <v>362.9899324180393</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -22091,28 +22201,28 @@
         <v>0.07679999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06975722180505574</v>
+        <v>0.04336753716076795</v>
       </c>
       <c r="J8" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K8" t="n">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="L8" t="n">
-        <v>0.005008360914387056</v>
+        <v>0.001843486611653122</v>
       </c>
       <c r="M8" t="n">
-        <v>5.442680577372252</v>
+        <v>5.525977682529247</v>
       </c>
       <c r="N8" t="n">
-        <v>51.44285784355206</v>
+        <v>54.64530896755194</v>
       </c>
       <c r="O8" t="n">
-        <v>7.172367659535592</v>
+        <v>7.392246544018398</v>
       </c>
       <c r="P8" t="n">
-        <v>362.1478353156361</v>
+        <v>362.414579759488</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -22169,28 +22279,28 @@
         <v>0.0801</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1165961137216755</v>
+        <v>0.09069997898880604</v>
       </c>
       <c r="J9" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K9" t="n">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01747126997808546</v>
+        <v>0.01006705473117564</v>
       </c>
       <c r="M9" t="n">
-        <v>4.831911405762318</v>
+        <v>4.926317296057559</v>
       </c>
       <c r="N9" t="n">
-        <v>40.90313794812243</v>
+        <v>43.6590103468225</v>
       </c>
       <c r="O9" t="n">
-        <v>6.395556109371759</v>
+        <v>6.607496526432874</v>
       </c>
       <c r="P9" t="n">
-        <v>359.7764196189449</v>
+        <v>360.0351558454822</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -22247,28 +22357,28 @@
         <v>0.077</v>
       </c>
       <c r="I10" t="n">
-        <v>0.118359515785366</v>
+        <v>0.09247833791811051</v>
       </c>
       <c r="J10" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K10" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01386054418374849</v>
+        <v>0.008111046004457889</v>
       </c>
       <c r="M10" t="n">
-        <v>5.31966081987862</v>
+        <v>5.419744333020633</v>
       </c>
       <c r="N10" t="n">
-        <v>53.93348437127084</v>
+        <v>57.10481338585586</v>
       </c>
       <c r="O10" t="n">
-        <v>7.343942018512323</v>
+        <v>7.556772683219727</v>
       </c>
       <c r="P10" t="n">
-        <v>358.101150842946</v>
+        <v>358.356636983576</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -22325,28 +22435,28 @@
         <v>0.06900000000000001</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01731729782223523</v>
+        <v>0.01764456242219808</v>
       </c>
       <c r="J11" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K11" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0002520190177214277</v>
+        <v>0.0002636959626121094</v>
       </c>
       <c r="M11" t="n">
-        <v>5.8891043468041</v>
+        <v>5.869171484725912</v>
       </c>
       <c r="N11" t="n">
-        <v>65.3221822868</v>
+        <v>65.08625501754496</v>
       </c>
       <c r="O11" t="n">
-        <v>8.082213947106325</v>
+        <v>8.067605283945475</v>
       </c>
       <c r="P11" t="n">
-        <v>358.7560349404468</v>
+        <v>358.7528073795887</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -22403,28 +22513,28 @@
         <v>0.0673</v>
       </c>
       <c r="I12" t="n">
-        <v>0.05323191138376547</v>
+        <v>0.05187038881006152</v>
       </c>
       <c r="J12" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K12" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L12" t="n">
-        <v>0.002071332065701315</v>
+        <v>0.001982005167484147</v>
       </c>
       <c r="M12" t="n">
-        <v>6.15457960699696</v>
+        <v>6.140004150006607</v>
       </c>
       <c r="N12" t="n">
-        <v>73.07115949006038</v>
+        <v>72.82100254707981</v>
       </c>
       <c r="O12" t="n">
-        <v>8.548167025161616</v>
+        <v>8.533522282567722</v>
       </c>
       <c r="P12" t="n">
-        <v>362.2343025807716</v>
+        <v>362.248002685152</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -22481,28 +22591,28 @@
         <v>0.0743</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.02496171556877281</v>
+        <v>-0.02888850715619145</v>
       </c>
       <c r="J13" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K13" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0007105291962938853</v>
+        <v>0.0009566809096831497</v>
       </c>
       <c r="M13" t="n">
-        <v>5.081298551124883</v>
+        <v>5.084856293543977</v>
       </c>
       <c r="N13" t="n">
-        <v>46.98321854197012</v>
+        <v>46.92238880397665</v>
       </c>
       <c r="O13" t="n">
-        <v>6.854430577514818</v>
+        <v>6.849991883497137</v>
       </c>
       <c r="P13" t="n">
-        <v>362.3251708014221</v>
+        <v>362.3645775603774</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -22559,28 +22669,28 @@
         <v>0.0675</v>
       </c>
       <c r="I14" t="n">
-        <v>0.06926681850853064</v>
+        <v>0.06322885110965688</v>
       </c>
       <c r="J14" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K14" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L14" t="n">
-        <v>0.004539776082454372</v>
+        <v>0.003797848573831142</v>
       </c>
       <c r="M14" t="n">
-        <v>5.588397531054578</v>
+        <v>5.600251183031963</v>
       </c>
       <c r="N14" t="n">
-        <v>56.62144188214396</v>
+        <v>56.68249525432353</v>
       </c>
       <c r="O14" t="n">
-        <v>7.524722046836279</v>
+        <v>7.528777806146462</v>
       </c>
       <c r="P14" t="n">
-        <v>362.4014215632719</v>
+        <v>362.4612006142987</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -22637,28 +22747,28 @@
         <v>0.0756</v>
       </c>
       <c r="I15" t="n">
-        <v>0.002436234866081005</v>
+        <v>0.002755674302641614</v>
       </c>
       <c r="J15" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K15" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L15" t="n">
-        <v>7.192693762259061e-06</v>
+        <v>9.272481865552074e-06</v>
       </c>
       <c r="M15" t="n">
-        <v>4.860047090943058</v>
+        <v>4.844909106572819</v>
       </c>
       <c r="N15" t="n">
-        <v>45.28541638340397</v>
+        <v>45.12999814054729</v>
       </c>
       <c r="O15" t="n">
-        <v>6.729443987686053</v>
+        <v>6.717886434031711</v>
       </c>
       <c r="P15" t="n">
-        <v>365.8860747203711</v>
+        <v>365.8829348975059</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -22715,28 +22825,28 @@
         <v>0.171</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.05304749976531896</v>
+        <v>-0.04967397689403704</v>
       </c>
       <c r="J16" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K16" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L16" t="n">
-        <v>0.004133463352116507</v>
+        <v>0.003646032405446809</v>
       </c>
       <c r="M16" t="n">
-        <v>4.286442899821316</v>
+        <v>4.289280124247318</v>
       </c>
       <c r="N16" t="n">
-        <v>37.19662880159088</v>
+        <v>37.15003107403722</v>
       </c>
       <c r="O16" t="n">
-        <v>6.098903901652401</v>
+        <v>6.095082532176018</v>
       </c>
       <c r="P16" t="n">
-        <v>363.3124354907494</v>
+        <v>363.2793513296412</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -22774,7 +22884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q337"/>
+  <dimension ref="A1:Q339"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48753,6 +48863,132 @@
         </is>
       </c>
     </row>
+    <row r="338">
+      <c r="A338" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>-35.22115538223622,174.05911408279164</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>-35.22178559188351,174.05864519477223</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>-35.22248772063444,174.05828852239762</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>-35.22325800998078,174.05829845625084</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>-35.2239915021646,174.05828812891596</t>
+        </is>
+      </c>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>-35.224724992641164,174.05832642905472</t>
+        </is>
+      </c>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>-35.225460297111816,174.05828495194208</t>
+        </is>
+      </c>
+      <c r="I338" t="inlineStr">
+        <is>
+          <t>-35.22619509923077,174.05827499659836</t>
+        </is>
+      </c>
+      <c r="J338" t="inlineStr">
+        <is>
+          <t>-35.22692808957176,174.05832424030527</t>
+        </is>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>-35.22766047704035,174.05838566617905</t>
+        </is>
+      </c>
+      <c r="L338" t="inlineStr">
+        <is>
+          <t>-35.228394115466024,174.05843953950588</t>
+        </is>
+      </c>
+      <c r="M338" t="inlineStr">
+        <is>
+          <t>-35.22912934074336,174.0585484080118</t>
+        </is>
+      </c>
+      <c r="N338" t="inlineStr">
+        <is>
+          <t>-35.22983702945005,174.05880975026912</t>
+        </is>
+      </c>
+      <c r="O338" t="inlineStr">
+        <is>
+          <t>-35.2304718062237,174.05926604339754</t>
+        </is>
+      </c>
+      <c r="P338" t="inlineStr">
+        <is>
+          <t>-35.23107559699561,174.05977043488699</t>
+        </is>
+      </c>
+      <c r="Q338" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:11:13+00:00</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr"/>
+      <c r="C339" t="inlineStr"/>
+      <c r="D339" t="inlineStr"/>
+      <c r="E339" t="inlineStr"/>
+      <c r="F339" t="inlineStr"/>
+      <c r="G339" t="inlineStr"/>
+      <c r="H339" t="inlineStr">
+        <is>
+          <t>-35.22546792062861,174.05800140228837</t>
+        </is>
+      </c>
+      <c r="I339" t="inlineStr">
+        <is>
+          <t>-35.22620213031085,174.0580448522741</t>
+        </is>
+      </c>
+      <c r="J339" t="inlineStr">
+        <is>
+          <t>-35.226937943110485,174.05802540843712</t>
+        </is>
+      </c>
+      <c r="K339" t="inlineStr"/>
+      <c r="L339" t="inlineStr"/>
+      <c r="M339" t="inlineStr"/>
+      <c r="N339" t="inlineStr"/>
+      <c r="O339" t="inlineStr"/>
+      <c r="P339" t="inlineStr"/>
+      <c r="Q339" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0063/nzd0063.xlsx
+++ b/data/nzd0063/nzd0063.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q339"/>
+  <dimension ref="A1:Q341"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18091,6 +18091,120 @@
         </is>
       </c>
     </row>
+    <row r="340">
+      <c r="A340" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>349.4771428571428</v>
+      </c>
+      <c r="C340" t="n">
+        <v>350.94</v>
+      </c>
+      <c r="D340" t="n">
+        <v>350.95</v>
+      </c>
+      <c r="E340" t="n">
+        <v>367.9985714285714</v>
+      </c>
+      <c r="F340" t="n">
+        <v>367.5007692307692</v>
+      </c>
+      <c r="G340" t="n">
+        <v>368.78</v>
+      </c>
+      <c r="H340" t="n">
+        <v>364.4285714285714</v>
+      </c>
+      <c r="I340" t="n">
+        <v>361.8285714285714</v>
+      </c>
+      <c r="J340" t="n">
+        <v>356.7807692307692</v>
+      </c>
+      <c r="K340" t="n">
+        <v>354.42</v>
+      </c>
+      <c r="L340" t="n">
+        <v>362.87</v>
+      </c>
+      <c r="M340" t="n">
+        <v>356.8907692307693</v>
+      </c>
+      <c r="N340" t="n">
+        <v>361.88</v>
+      </c>
+      <c r="O340" t="n">
+        <v>366.5285714285715</v>
+      </c>
+      <c r="P340" t="n">
+        <v>366.9286206896552</v>
+      </c>
+      <c r="Q340" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:25+00:00</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>346.3228571428572</v>
+      </c>
+      <c r="C341" t="n">
+        <v>336.37</v>
+      </c>
+      <c r="D341" t="n">
+        <v>344.14</v>
+      </c>
+      <c r="E341" t="n">
+        <v>348.9314285714286</v>
+      </c>
+      <c r="F341" t="n">
+        <v>354.9292307692308</v>
+      </c>
+      <c r="G341" t="n">
+        <v>354.07</v>
+      </c>
+      <c r="H341" t="n">
+        <v>352.4514285714285</v>
+      </c>
+      <c r="I341" t="n">
+        <v>359.3114285714286</v>
+      </c>
+      <c r="J341" t="n">
+        <v>350.4792307692308</v>
+      </c>
+      <c r="K341" t="n">
+        <v>349.39</v>
+      </c>
+      <c r="L341" t="n">
+        <v>350.8</v>
+      </c>
+      <c r="M341" t="n">
+        <v>353.2492307692308</v>
+      </c>
+      <c r="N341" t="n">
+        <v>357.64</v>
+      </c>
+      <c r="O341" t="n">
+        <v>361.2514285714286</v>
+      </c>
+      <c r="P341" t="n">
+        <v>360.1513793103449</v>
+      </c>
+      <c r="Q341" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -18102,7 +18216,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B345"/>
+  <dimension ref="A1:B347"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21560,6 +21674,26 @@
       </c>
       <c r="B345" t="n">
         <v>0.4</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>-0.18</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>0.18</v>
       </c>
     </row>
   </sheetData>
@@ -21733,28 +21867,28 @@
         <v>0.0386</v>
       </c>
       <c r="I2" t="n">
-        <v>0.05891077119542244</v>
+        <v>0.04686379485313581</v>
       </c>
       <c r="J2" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K2" t="n">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002185251790440268</v>
+        <v>0.001398641008036883</v>
       </c>
       <c r="M2" t="n">
-        <v>6.856503610523816</v>
+        <v>6.86449014589313</v>
       </c>
       <c r="N2" t="n">
-        <v>87.50529749327815</v>
+        <v>87.38358889683786</v>
       </c>
       <c r="O2" t="n">
-        <v>9.354426625575623</v>
+        <v>9.347918960754734</v>
       </c>
       <c r="P2" t="n">
-        <v>354.7217276383523</v>
+        <v>354.8395931485059</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -21811,28 +21945,28 @@
         <v>0.0411</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.002227395505086094</v>
+        <v>-0.003811358123238785</v>
       </c>
       <c r="J3" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K3" t="n">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="L3" t="n">
-        <v>5.379844523978328e-06</v>
+        <v>1.58852004424892e-05</v>
       </c>
       <c r="M3" t="n">
-        <v>5.479701263274666</v>
+        <v>5.493192890543829</v>
       </c>
       <c r="N3" t="n">
-        <v>50.9899704587867</v>
+        <v>51.01340452086605</v>
       </c>
       <c r="O3" t="n">
-        <v>7.140726185675144</v>
+        <v>7.142366871063545</v>
       </c>
       <c r="P3" t="n">
-        <v>344.815691208947</v>
+        <v>344.8312906343837</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -21889,28 +22023,28 @@
         <v>0.0477</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01793856559058946</v>
+        <v>0.01051012421926405</v>
       </c>
       <c r="J4" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K4" t="n">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L4" t="n">
-        <v>0.000294652520411498</v>
+        <v>0.0001024205734532213</v>
       </c>
       <c r="M4" t="n">
-        <v>5.998137155926406</v>
+        <v>5.992564861757973</v>
       </c>
       <c r="N4" t="n">
-        <v>59.95408740294416</v>
+        <v>59.78171116659546</v>
       </c>
       <c r="O4" t="n">
-        <v>7.743002479848768</v>
+        <v>7.731863369628014</v>
       </c>
       <c r="P4" t="n">
-        <v>352.1142123435785</v>
+        <v>352.1870004610749</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -21967,28 +22101,28 @@
         <v>0.0804</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.01262201132926933</v>
+        <v>-0.01234728338598271</v>
       </c>
       <c r="J5" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K5" t="n">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0001707424573222927</v>
+        <v>0.0001639556861326996</v>
       </c>
       <c r="M5" t="n">
-        <v>5.243677079528053</v>
+        <v>5.273621395085469</v>
       </c>
       <c r="N5" t="n">
-        <v>50.53082681043749</v>
+        <v>50.81331424061465</v>
       </c>
       <c r="O5" t="n">
-        <v>7.108503837688877</v>
+        <v>7.128345827793055</v>
       </c>
       <c r="P5" t="n">
-        <v>358.5898367236115</v>
+        <v>358.5871789738193</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -22045,28 +22179,28 @@
         <v>0.0711</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.04241702562979879</v>
+        <v>-0.04613196760183353</v>
       </c>
       <c r="J6" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K6" t="n">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002373147360177352</v>
+        <v>0.002828286168849448</v>
       </c>
       <c r="M6" t="n">
-        <v>4.884757813848811</v>
+        <v>4.896534595398557</v>
       </c>
       <c r="N6" t="n">
-        <v>41.97976741183116</v>
+        <v>42.00956924809384</v>
       </c>
       <c r="O6" t="n">
-        <v>6.479179532304315</v>
+        <v>6.48147893987891</v>
       </c>
       <c r="P6" t="n">
-        <v>364.9121631889105</v>
+        <v>364.9487612026929</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -22123,28 +22257,28 @@
         <v>0.1034</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.0004196985806310181</v>
+        <v>-0.002607409724490284</v>
       </c>
       <c r="J7" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K7" t="n">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="L7" t="n">
-        <v>2.181482344765229e-07</v>
+        <v>8.473188420010658e-06</v>
       </c>
       <c r="M7" t="n">
-        <v>5.244960908819321</v>
+        <v>5.260514533297791</v>
       </c>
       <c r="N7" t="n">
-        <v>44.53126089728588</v>
+        <v>44.61674699013293</v>
       </c>
       <c r="O7" t="n">
-        <v>6.673174724018986</v>
+        <v>6.679576857116993</v>
       </c>
       <c r="P7" t="n">
-        <v>362.9899324180393</v>
+        <v>363.0117731571269</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -22201,28 +22335,28 @@
         <v>0.07679999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>0.04336753716076795</v>
+        <v>0.03626954574553194</v>
       </c>
       <c r="J8" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K8" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001843486611653122</v>
+        <v>0.001299684927933753</v>
       </c>
       <c r="M8" t="n">
-        <v>5.525977682529247</v>
+        <v>5.528703198375268</v>
       </c>
       <c r="N8" t="n">
-        <v>54.64530896755194</v>
+        <v>54.69170564900006</v>
       </c>
       <c r="O8" t="n">
-        <v>7.392246544018398</v>
+        <v>7.395384077179498</v>
       </c>
       <c r="P8" t="n">
-        <v>362.414579759488</v>
+        <v>362.4865784199013</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -22279,28 +22413,28 @@
         <v>0.0801</v>
       </c>
       <c r="I9" t="n">
-        <v>0.09069997898880604</v>
+        <v>0.08815790858923629</v>
       </c>
       <c r="J9" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K9" t="n">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01006705473117564</v>
+        <v>0.00965604137107634</v>
       </c>
       <c r="M9" t="n">
-        <v>4.926317296057559</v>
+        <v>4.904593037737235</v>
       </c>
       <c r="N9" t="n">
-        <v>43.6590103468225</v>
+        <v>43.38928789405665</v>
       </c>
       <c r="O9" t="n">
-        <v>6.607496526432874</v>
+        <v>6.587054568929625</v>
       </c>
       <c r="P9" t="n">
-        <v>360.0351558454822</v>
+        <v>360.0606412139535</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -22357,28 +22491,28 @@
         <v>0.077</v>
       </c>
       <c r="I10" t="n">
-        <v>0.09247833791811051</v>
+        <v>0.08239184000489257</v>
       </c>
       <c r="J10" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K10" t="n">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="L10" t="n">
-        <v>0.008111046004457889</v>
+        <v>0.006503856995310753</v>
       </c>
       <c r="M10" t="n">
-        <v>5.419744333020633</v>
+        <v>5.436395619061544</v>
       </c>
       <c r="N10" t="n">
-        <v>57.10481338585586</v>
+        <v>57.12209314750555</v>
       </c>
       <c r="O10" t="n">
-        <v>7.556772683219727</v>
+        <v>7.557915926199864</v>
       </c>
       <c r="P10" t="n">
-        <v>358.356636983576</v>
+        <v>358.4565075408398</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -22435,28 +22569,28 @@
         <v>0.06900000000000001</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01764456242219808</v>
+        <v>0.007297062138585321</v>
       </c>
       <c r="J11" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K11" t="n">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0002636959626121094</v>
+        <v>4.55288303875534e-05</v>
       </c>
       <c r="M11" t="n">
-        <v>5.869171484725912</v>
+        <v>5.886293729115035</v>
       </c>
       <c r="N11" t="n">
-        <v>65.08625501754496</v>
+        <v>65.03877098853893</v>
       </c>
       <c r="O11" t="n">
-        <v>8.067605283945475</v>
+        <v>8.064661864488736</v>
       </c>
       <c r="P11" t="n">
-        <v>358.7528073795887</v>
+        <v>358.8554467542322</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -22513,28 +22647,28 @@
         <v>0.0673</v>
       </c>
       <c r="I12" t="n">
-        <v>0.05187038881006152</v>
+        <v>0.04223163732104798</v>
       </c>
       <c r="J12" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K12" t="n">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="L12" t="n">
-        <v>0.001982005167484147</v>
+        <v>0.001324813879736819</v>
       </c>
       <c r="M12" t="n">
-        <v>6.140004150006607</v>
+        <v>6.148935709632153</v>
       </c>
       <c r="N12" t="n">
-        <v>72.82100254707981</v>
+        <v>72.87997424153703</v>
       </c>
       <c r="O12" t="n">
-        <v>8.533522282567722</v>
+        <v>8.536976879524568</v>
       </c>
       <c r="P12" t="n">
-        <v>362.248002685152</v>
+        <v>362.3455668123411</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -22591,28 +22725,28 @@
         <v>0.0743</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.02888850715619145</v>
+        <v>-0.03813257633678668</v>
       </c>
       <c r="J13" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K13" t="n">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0009566809096831497</v>
+        <v>0.001680271571953051</v>
       </c>
       <c r="M13" t="n">
-        <v>5.084856293543977</v>
+        <v>5.100299500977931</v>
       </c>
       <c r="N13" t="n">
-        <v>46.92238880397665</v>
+        <v>46.91016739862177</v>
       </c>
       <c r="O13" t="n">
-        <v>6.849991883497137</v>
+        <v>6.849099750961565</v>
       </c>
       <c r="P13" t="n">
-        <v>362.3645775603774</v>
+        <v>362.4578659697585</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -22669,28 +22803,28 @@
         <v>0.0675</v>
       </c>
       <c r="I14" t="n">
-        <v>0.06322885110965688</v>
+        <v>0.05725410860892431</v>
       </c>
       <c r="J14" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K14" t="n">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="L14" t="n">
-        <v>0.003797848573831142</v>
+        <v>0.003155781003511327</v>
       </c>
       <c r="M14" t="n">
-        <v>5.600251183031963</v>
+        <v>5.592337308078799</v>
       </c>
       <c r="N14" t="n">
-        <v>56.68249525432353</v>
+        <v>56.45367820223117</v>
       </c>
       <c r="O14" t="n">
-        <v>7.528777806146462</v>
+        <v>7.513566277223564</v>
       </c>
       <c r="P14" t="n">
-        <v>362.4612006142987</v>
+        <v>362.5206850317251</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -22747,28 +22881,28 @@
         <v>0.0756</v>
       </c>
       <c r="I15" t="n">
-        <v>0.002755674302641614</v>
+        <v>-5.107995819200879e-05</v>
       </c>
       <c r="J15" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K15" t="n">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L15" t="n">
-        <v>9.272481865552074e-06</v>
+        <v>3.229223000111858e-09</v>
       </c>
       <c r="M15" t="n">
-        <v>4.844909106572819</v>
+        <v>4.829739475521672</v>
       </c>
       <c r="N15" t="n">
-        <v>45.12999814054729</v>
+        <v>44.89712814219055</v>
       </c>
       <c r="O15" t="n">
-        <v>6.717886434031711</v>
+        <v>6.700531929794122</v>
       </c>
       <c r="P15" t="n">
-        <v>365.8829348975059</v>
+        <v>365.9106940251203</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -22825,28 +22959,28 @@
         <v>0.171</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.04967397689403704</v>
+        <v>-0.04756634055835918</v>
       </c>
       <c r="J16" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K16" t="n">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L16" t="n">
-        <v>0.003646032405446809</v>
+        <v>0.00338691803055835</v>
       </c>
       <c r="M16" t="n">
-        <v>4.289280124247318</v>
+        <v>4.283605313823167</v>
       </c>
       <c r="N16" t="n">
-        <v>37.15003107403722</v>
+        <v>36.99028550787518</v>
       </c>
       <c r="O16" t="n">
-        <v>6.095082532176018</v>
+        <v>6.081963951543545</v>
       </c>
       <c r="P16" t="n">
-        <v>363.2793513296412</v>
+        <v>363.2585906493909</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -22884,7 +23018,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q339"/>
+  <dimension ref="A1:Q341"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48989,6 +49123,180 @@
         </is>
       </c>
     </row>
+    <row r="340">
+      <c r="A340" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>-35.221169057561184,174.05914774355807</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>-35.221830565213104,174.0587572107617</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>-35.22250368046595,174.0583517033818</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>-35.2232654164937,174.0583933355688</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>-35.223991750685784,174.05834359794906</t>
+        </is>
+      </c>
+      <c r="G340" t="inlineStr">
+        <is>
+          <t>-35.224723634168505,174.0583793999354</t>
+        </is>
+      </c>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>-35.22545845334771,174.05835352532625</t>
+        </is>
+      </c>
+      <c r="I340" t="inlineStr">
+        <is>
+          <t>-35.226192819978266,174.05834959898695</t>
+        </is>
+      </c>
+      <c r="J340" t="inlineStr">
+        <is>
+          <t>-35.22692809374903,174.05832411362434</t>
+        </is>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>-35.2276624118927,174.05832813750803</t>
+        </is>
+      </c>
+      <c r="L340" t="inlineStr">
+        <is>
+          <t>-35.228392894715,174.05845208790046</t>
+        </is>
+      </c>
+      <c r="M340" t="inlineStr">
+        <is>
+          <t>-35.22912775525428,174.0585559490834</t>
+        </is>
+      </c>
+      <c r="N340" t="inlineStr">
+        <is>
+          <t>-35.229817031576026,174.05887536525626</t>
+        </is>
+      </c>
+      <c r="O340" t="inlineStr">
+        <is>
+          <t>-35.23047131052417,174.05926714434406</t>
+        </is>
+      </c>
+      <c r="P340" t="inlineStr">
+        <is>
+          <t>-35.23107512697872,174.0597712733742</t>
+        </is>
+      </c>
+      <c r="Q340" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:25+00:00</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>-35.221156439459754,174.0591166850653</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>-35.22177283291077,174.05861341580882</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>-35.22248561623312,174.05828019161038</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>-35.223249135972424,174.05818477922256</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>-35.22399113177808,174.05820547050553</t>
+        </is>
+      </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>-35.22472777710913,174.05821785155456</t>
+        </is>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>-35.2254619898311,174.05822199495137</t>
+        </is>
+      </c>
+      <c r="I341" t="inlineStr">
+        <is>
+          <t>-35.2261936643997,174.05832196033984</t>
+        </is>
+      </c>
+      <c r="J341" t="inlineStr">
+        <is>
+          <t>-35.226930375076904,174.058254928954</t>
+        </is>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>-35.227664269177566,174.05827291437205</t>
+        </is>
+      </c>
+      <c r="L341" t="inlineStr">
+        <is>
+          <t>-35.228405707228724,174.05832038429543</t>
+        </is>
+      </c>
+      <c r="M341" t="inlineStr">
+        <is>
+          <t>-35.22913590476646,174.05851718748096</t>
+        </is>
+      </c>
+      <c r="N341" t="inlineStr">
+        <is>
+          <t>-35.22983034256672,174.058831690606</t>
+        </is>
+      </c>
+      <c r="O341" t="inlineStr">
+        <is>
+          <t>-35.230494199439484,174.05921630812435</t>
+        </is>
+      </c>
+      <c r="P341" t="inlineStr">
+        <is>
+          <t>-35.231109596037186,174.0597097821999</t>
+        </is>
+      </c>
+      <c r="Q341" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0063/nzd0063.xlsx
+++ b/data/nzd0063/nzd0063.xlsx
@@ -21858,13 +21858,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.035</v>
+        <v>0.045</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0346</v>
+        <v>0.0408</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0386</v>
+        <v>0.0544</v>
       </c>
       <c r="I2" t="n">
         <v>0.04686752498595292</v>
@@ -21936,13 +21936,13 @@
         <v>0.0714960169042916</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0374</v>
+        <v>0.0445</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0411</v>
+        <v>0.06</v>
       </c>
       <c r="I3" t="n">
         <v>-0.003811358123238785</v>
@@ -22014,13 +22014,13 @@
         <v>0.1428894220896569</v>
       </c>
       <c r="F4" t="n">
-        <v>0.045</v>
+        <v>0.05</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0399</v>
+        <v>0.043</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0477</v>
+        <v>0.0629</v>
       </c>
       <c r="I4" t="n">
         <v>0.01054834810219337</v>
@@ -22092,13 +22092,13 @@
         <v>0.2143854389945839</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0645</v>
+        <v>0.0602</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0804</v>
+        <v>0.0988</v>
       </c>
       <c r="I5" t="n">
         <v>-0.01233376744519468</v>
@@ -22170,13 +22170,13 @@
         <v>0.2856050043895073</v>
       </c>
       <c r="F6" t="n">
-        <v>0.065</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>0.06</v>
+        <v>0.0588</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0711</v>
+        <v>0.09520000000000001</v>
       </c>
       <c r="I6" t="n">
         <v>-0.0461567487615193</v>
@@ -22248,13 +22248,13 @@
         <v>0.3571010212939335</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0795</v>
+        <v>0.06320000000000001</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1034</v>
+        <v>0.1146</v>
       </c>
       <c r="I7" t="n">
         <v>-0.002625144195559533</v>
@@ -22326,13 +22326,13 @@
         <v>0.4285970381990255</v>
       </c>
       <c r="F8" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="G8" t="n">
-        <v>0.06569999999999999</v>
+        <v>0.074</v>
       </c>
       <c r="H8" t="n">
-        <v>0.07679999999999999</v>
+        <v>0.1164</v>
       </c>
       <c r="I8" t="n">
         <v>0.03628576864628268</v>
@@ -22404,13 +22404,13 @@
         <v>0.5000924154805891</v>
       </c>
       <c r="F9" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0654</v>
+        <v>0.0847</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0801</v>
+        <v>0.1576</v>
       </c>
       <c r="I9" t="n">
         <v>0.08817148340445381</v>
@@ -22482,13 +22482,13 @@
         <v>0.5715884323857224</v>
       </c>
       <c r="F10" t="n">
-        <v>0.065</v>
+        <v>0.105</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0586</v>
+        <v>0.0839</v>
       </c>
       <c r="H10" t="n">
-        <v>0.077</v>
+        <v>0.1395</v>
       </c>
       <c r="I10" t="n">
         <v>0.08237397646202048</v>
@@ -22560,13 +22560,13 @@
         <v>0.6430844492908556</v>
       </c>
       <c r="F11" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0563</v>
+        <v>0.0664</v>
       </c>
       <c r="H11" t="n">
-        <v>0.06900000000000001</v>
+        <v>0.1329</v>
       </c>
       <c r="I11" t="n">
         <v>0.007308758247975833</v>
@@ -22638,13 +22638,13 @@
         <v>0.7145716931040154</v>
       </c>
       <c r="F12" t="n">
-        <v>0.06</v>
+        <v>0.065</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0525</v>
+        <v>0.0532</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0673</v>
+        <v>0.0887</v>
       </c>
       <c r="I12" t="n">
         <v>0.0422507893796921</v>
@@ -22716,13 +22716,13 @@
         <v>0.7860677100092408</v>
       </c>
       <c r="F13" t="n">
-        <v>0.065</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0594</v>
+        <v>0.0591</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0743</v>
+        <v>0.0926</v>
       </c>
       <c r="I13" t="n">
         <v>-0.03815946472844361</v>
@@ -22794,13 +22794,13 @@
         <v>0.8573994156989467</v>
       </c>
       <c r="F14" t="n">
-        <v>0.06</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0572</v>
+        <v>0.0731</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0675</v>
+        <v>0.1046</v>
       </c>
       <c r="I14" t="n">
         <v>0.05727950101276379</v>
@@ -22872,13 +22872,13 @@
         <v>0.9285039830950017</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0638</v>
+        <v>0.0727</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0756</v>
+        <v>0.1029</v>
       </c>
       <c r="I15" t="n">
         <v>-4.678680058532419e-05</v>
@@ -22950,13 +22950,13 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.145</v>
+        <v>0.105</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1273</v>
+        <v>0.0881</v>
       </c>
       <c r="H16" t="n">
-        <v>0.171</v>
+        <v>0.1245</v>
       </c>
       <c r="I16" t="n">
         <v>-0.0475533809389075</v>
